--- a/data/nzd0535/nzd0535.xlsx
+++ b/data/nzd0535/nzd0535.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N452"/>
+  <dimension ref="A1:N458"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21240,6 +21240,294 @@
         </is>
       </c>
     </row>
+    <row r="453">
+      <c r="A453" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-02 22:27:12+00:00</t>
+        </is>
+      </c>
+      <c r="B453" t="n">
+        <v>322.88</v>
+      </c>
+      <c r="C453" t="n">
+        <v>322.1315789473684</v>
+      </c>
+      <c r="D453" t="n">
+        <v>321.5766666666667</v>
+      </c>
+      <c r="E453" t="n">
+        <v>318.2505882352941</v>
+      </c>
+      <c r="F453" t="n">
+        <v>314.175</v>
+      </c>
+      <c r="G453" t="n">
+        <v>323.1866666666667</v>
+      </c>
+      <c r="H453" t="n">
+        <v>320.365</v>
+      </c>
+      <c r="I453" t="n">
+        <v>316.5628571428572</v>
+      </c>
+      <c r="J453" t="n">
+        <v>323.845</v>
+      </c>
+      <c r="K453" t="n">
+        <v>315.4915789473685</v>
+      </c>
+      <c r="L453" t="n">
+        <v>315.04</v>
+      </c>
+      <c r="M453" t="n">
+        <v>312.6333333333333</v>
+      </c>
+      <c r="N453" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-10 22:26:57+00:00</t>
+        </is>
+      </c>
+      <c r="B454" t="n">
+        <v>323.17</v>
+      </c>
+      <c r="C454" t="n">
+        <v>319.3042105263158</v>
+      </c>
+      <c r="D454" t="n">
+        <v>315.49</v>
+      </c>
+      <c r="E454" t="n">
+        <v>311.9229411764706</v>
+      </c>
+      <c r="F454" t="n">
+        <v>308.11</v>
+      </c>
+      <c r="G454" t="n">
+        <v>309.19</v>
+      </c>
+      <c r="H454" t="n">
+        <v>311.91</v>
+      </c>
+      <c r="I454" t="n">
+        <v>309.1342857142857</v>
+      </c>
+      <c r="J454" t="n">
+        <v>310.52</v>
+      </c>
+      <c r="K454" t="n">
+        <v>306.0942105263158</v>
+      </c>
+      <c r="L454" t="n">
+        <v>305.6076923076923</v>
+      </c>
+      <c r="M454" t="n">
+        <v>306.58</v>
+      </c>
+      <c r="N454" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-18 22:27:07+00:00</t>
+        </is>
+      </c>
+      <c r="B455" t="n">
+        <v>341.72</v>
+      </c>
+      <c r="C455" t="n">
+        <v>327.8378947368421</v>
+      </c>
+      <c r="D455" t="n">
+        <v>327.88</v>
+      </c>
+      <c r="E455" t="n">
+        <v>316.8276470588235</v>
+      </c>
+      <c r="F455" t="n">
+        <v>318.4</v>
+      </c>
+      <c r="G455" t="n">
+        <v>321.32</v>
+      </c>
+      <c r="H455" t="n">
+        <v>315.11</v>
+      </c>
+      <c r="I455" t="n">
+        <v>310.76</v>
+      </c>
+      <c r="J455" t="n">
+        <v>320.17</v>
+      </c>
+      <c r="K455" t="n">
+        <v>322.3778947368421</v>
+      </c>
+      <c r="L455" t="n">
+        <v>308.6569230769231</v>
+      </c>
+      <c r="M455" t="n">
+        <v>314.13</v>
+      </c>
+      <c r="N455" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-04 22:20:50+00:00</t>
+        </is>
+      </c>
+      <c r="B456" t="n">
+        <v>330.8</v>
+      </c>
+      <c r="C456" t="n">
+        <v>325.2731578947368</v>
+      </c>
+      <c r="D456" t="n">
+        <v>321.92</v>
+      </c>
+      <c r="E456" t="n">
+        <v>320.48</v>
+      </c>
+      <c r="F456" t="n">
+        <v>326.38</v>
+      </c>
+      <c r="G456" t="n">
+        <v>322.66</v>
+      </c>
+      <c r="H456" t="n">
+        <v>322.97</v>
+      </c>
+      <c r="I456" t="n">
+        <v>322.2885714285715</v>
+      </c>
+      <c r="J456" t="n">
+        <v>328</v>
+      </c>
+      <c r="K456" t="n">
+        <v>331.1131578947368</v>
+      </c>
+      <c r="L456" t="n">
+        <v>319.3676923076923</v>
+      </c>
+      <c r="M456" t="n">
+        <v>317.29</v>
+      </c>
+      <c r="N456" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-11 22:27:03+00:00</t>
+        </is>
+      </c>
+      <c r="B457" t="n">
+        <v>336.11</v>
+      </c>
+      <c r="C457" t="n">
+        <v>330.3731578947368</v>
+      </c>
+      <c r="D457" t="n">
+        <v>326.4733333333334</v>
+      </c>
+      <c r="E457" t="n">
+        <v>324.1229411764706</v>
+      </c>
+      <c r="F457" t="n">
+        <v>327.24</v>
+      </c>
+      <c r="G457" t="n">
+        <v>330.4733333333334</v>
+      </c>
+      <c r="H457" t="n">
+        <v>330.28</v>
+      </c>
+      <c r="I457" t="n">
+        <v>332.0414285714286</v>
+      </c>
+      <c r="J457" t="n">
+        <v>326.96</v>
+      </c>
+      <c r="K457" t="n">
+        <v>323.6531578947368</v>
+      </c>
+      <c r="L457" t="n">
+        <v>319.9984615384615</v>
+      </c>
+      <c r="M457" t="n">
+        <v>323.2666666666667</v>
+      </c>
+      <c r="N457" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-12 22:20:57+00:00</t>
+        </is>
+      </c>
+      <c r="B458" t="n">
+        <v>342.41</v>
+      </c>
+      <c r="C458" t="n">
+        <v>327.4310526315789</v>
+      </c>
+      <c r="D458" t="n">
+        <v>319.3233333333333</v>
+      </c>
+      <c r="E458" t="n">
+        <v>322.9364705882353</v>
+      </c>
+      <c r="F458" t="n">
+        <v>322.125</v>
+      </c>
+      <c r="G458" t="n">
+        <v>328.6433333333333</v>
+      </c>
+      <c r="H458" t="n">
+        <v>323.845</v>
+      </c>
+      <c r="I458" t="n">
+        <v>322.4042857142857</v>
+      </c>
+      <c r="J458" t="n">
+        <v>321.445</v>
+      </c>
+      <c r="K458" t="n">
+        <v>318.921052631579</v>
+      </c>
+      <c r="L458" t="n">
+        <v>312.5346153846153</v>
+      </c>
+      <c r="M458" t="n">
+        <v>309.7766666666667</v>
+      </c>
+      <c r="N458" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -21251,7 +21539,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B508"/>
+  <dimension ref="A1:B514"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26339,6 +26627,66 @@
       </c>
       <c r="B508" t="n">
         <v>0.32</v>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" t="inlineStr">
+        <is>
+          <t>2024-12-02 22:30:00+00:00</t>
+        </is>
+      </c>
+      <c r="B509" t="n">
+        <v>-0.13</v>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" t="inlineStr">
+        <is>
+          <t>2024-12-10 22:30:00+00:00</t>
+        </is>
+      </c>
+      <c r="B510" t="n">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" t="inlineStr">
+        <is>
+          <t>2024-12-18 22:30:00+00:00</t>
+        </is>
+      </c>
+      <c r="B511" t="n">
+        <v>-0.84</v>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" t="inlineStr">
+        <is>
+          <t>2025-01-04 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B512" t="n">
+        <v>-1.02</v>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" t="inlineStr">
+        <is>
+          <t>2025-01-11 22:30:00+00:00</t>
+        </is>
+      </c>
+      <c r="B513" t="n">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" t="inlineStr">
+        <is>
+          <t>2025-01-12 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B514" t="n">
+        <v>0.61</v>
       </c>
     </row>
   </sheetData>
@@ -26507,28 +26855,28 @@
         <v>0.1208</v>
       </c>
       <c r="I2" t="n">
-        <v>0.170377826749687</v>
+        <v>0.1835170252346733</v>
       </c>
       <c r="J2" t="n">
-        <v>451</v>
+        <v>457</v>
       </c>
       <c r="K2" t="n">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0157510499110548</v>
+        <v>0.01854853300347348</v>
       </c>
       <c r="M2" t="n">
-        <v>7.529328843886746</v>
+        <v>7.542141203763521</v>
       </c>
       <c r="N2" t="n">
-        <v>96.10593467172815</v>
+        <v>95.90991622157536</v>
       </c>
       <c r="O2" t="n">
-        <v>9.803363436684787</v>
+        <v>9.793360823617975</v>
       </c>
       <c r="P2" t="n">
-        <v>323.9422548348093</v>
+        <v>323.8121714386548</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -26584,28 +26932,28 @@
         <v>0.114</v>
       </c>
       <c r="I3" t="n">
-        <v>0.3172039065464405</v>
+        <v>0.3352185744597041</v>
       </c>
       <c r="J3" t="n">
-        <v>451</v>
+        <v>457</v>
       </c>
       <c r="K3" t="n">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="L3" t="n">
-        <v>0.05943311378936056</v>
+        <v>0.06721712853220063</v>
       </c>
       <c r="M3" t="n">
-        <v>6.860356789204174</v>
+        <v>6.851828018360979</v>
       </c>
       <c r="N3" t="n">
-        <v>83.90809839892133</v>
+        <v>83.44616099581705</v>
       </c>
       <c r="O3" t="n">
-        <v>9.160136374471797</v>
+        <v>9.134887026987091</v>
       </c>
       <c r="P3" t="n">
-        <v>310.9625649041843</v>
+        <v>310.7835149103293</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -26661,28 +27009,28 @@
         <v>0.08500000000000001</v>
       </c>
       <c r="I4" t="n">
-        <v>0.2405324887840124</v>
+        <v>0.2503543445375682</v>
       </c>
       <c r="J4" t="n">
-        <v>451</v>
+        <v>457</v>
       </c>
       <c r="K4" t="n">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="L4" t="n">
-        <v>0.03922541246570077</v>
+        <v>0.04335460774997657</v>
       </c>
       <c r="M4" t="n">
-        <v>6.90418118548845</v>
+        <v>6.866445308598462</v>
       </c>
       <c r="N4" t="n">
-        <v>74.61145063667962</v>
+        <v>73.9420171550945</v>
       </c>
       <c r="O4" t="n">
-        <v>8.637792000081943</v>
+        <v>8.598954422201254</v>
       </c>
       <c r="P4" t="n">
-        <v>312.5198791374814</v>
+        <v>312.422182510542</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -26738,28 +27086,28 @@
         <v>0.1024</v>
       </c>
       <c r="I5" t="n">
-        <v>0.2634371292200872</v>
+        <v>0.2653915409509142</v>
       </c>
       <c r="J5" t="n">
-        <v>451</v>
+        <v>457</v>
       </c>
       <c r="K5" t="n">
-        <v>413</v>
+        <v>419</v>
       </c>
       <c r="L5" t="n">
-        <v>0.04285241237249104</v>
+        <v>0.04460606651439691</v>
       </c>
       <c r="M5" t="n">
-        <v>6.822531707826744</v>
+        <v>6.773260938007678</v>
       </c>
       <c r="N5" t="n">
-        <v>82.42508489719494</v>
+        <v>81.48705058337504</v>
       </c>
       <c r="O5" t="n">
-        <v>9.078826184986413</v>
+        <v>9.027017812288566</v>
       </c>
       <c r="P5" t="n">
-        <v>311.6985405846909</v>
+        <v>311.6791981741442</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -26815,28 +27163,28 @@
         <v>0.0951</v>
       </c>
       <c r="I6" t="n">
-        <v>0.2093923114534479</v>
+        <v>0.2085614741074979</v>
       </c>
       <c r="J6" t="n">
-        <v>451</v>
+        <v>457</v>
       </c>
       <c r="K6" t="n">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="L6" t="n">
-        <v>0.03175489178437108</v>
+        <v>0.03214951322225845</v>
       </c>
       <c r="M6" t="n">
-        <v>6.337070020667388</v>
+        <v>6.330301897455166</v>
       </c>
       <c r="N6" t="n">
-        <v>70.71942379343305</v>
+        <v>70.36082975740669</v>
       </c>
       <c r="O6" t="n">
-        <v>8.409484157392358</v>
+        <v>8.388136250527092</v>
       </c>
       <c r="P6" t="n">
-        <v>314.3997301117701</v>
+        <v>314.4075656443977</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -26892,28 +27240,28 @@
         <v>0.08890000000000001</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1504266868929094</v>
+        <v>0.1550586814055854</v>
       </c>
       <c r="J7" t="n">
-        <v>451</v>
+        <v>457</v>
       </c>
       <c r="K7" t="n">
-        <v>420</v>
+        <v>426</v>
       </c>
       <c r="L7" t="n">
-        <v>0.01534393422718794</v>
+        <v>0.01662253035189898</v>
       </c>
       <c r="M7" t="n">
-        <v>6.684650693495517</v>
+        <v>6.665648743705948</v>
       </c>
       <c r="N7" t="n">
-        <v>77.110437866674</v>
+        <v>76.71896196915341</v>
       </c>
       <c r="O7" t="n">
-        <v>8.781254914115294</v>
+        <v>8.758936120851288</v>
       </c>
       <c r="P7" t="n">
-        <v>317.0848247011272</v>
+        <v>317.0391810073371</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -26969,28 +27317,28 @@
         <v>0.0887</v>
       </c>
       <c r="I8" t="n">
-        <v>0.01720257979754347</v>
+        <v>0.02217375962200369</v>
       </c>
       <c r="J8" t="n">
-        <v>451</v>
+        <v>457</v>
       </c>
       <c r="K8" t="n">
-        <v>413</v>
+        <v>419</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0001895986100899361</v>
+        <v>0.0003224060051449928</v>
       </c>
       <c r="M8" t="n">
-        <v>6.909832709997689</v>
+        <v>6.887015457229581</v>
       </c>
       <c r="N8" t="n">
-        <v>83.20517383179558</v>
+        <v>82.57063506253485</v>
       </c>
       <c r="O8" t="n">
-        <v>9.121687005800823</v>
+        <v>9.086838562587918</v>
       </c>
       <c r="P8" t="n">
-        <v>318.5389441418238</v>
+        <v>318.490064327082</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -27046,28 +27394,28 @@
         <v>0.08260000000000001</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.08076298134764086</v>
+        <v>-0.08306142268351879</v>
       </c>
       <c r="J9" t="n">
-        <v>451</v>
+        <v>457</v>
       </c>
       <c r="K9" t="n">
-        <v>423</v>
+        <v>429</v>
       </c>
       <c r="L9" t="n">
-        <v>0.003730844524047816</v>
+        <v>0.004027406491988628</v>
       </c>
       <c r="M9" t="n">
-        <v>7.296909099741159</v>
+        <v>7.289790833497838</v>
       </c>
       <c r="N9" t="n">
-        <v>92.41600980935318</v>
+        <v>91.98141709582896</v>
       </c>
       <c r="O9" t="n">
-        <v>9.613324597107557</v>
+        <v>9.590694296860315</v>
       </c>
       <c r="P9" t="n">
-        <v>321.780651735256</v>
+        <v>321.8027307270169</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -27123,28 +27471,28 @@
         <v>0.09180000000000001</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.05677958478567503</v>
+        <v>-0.05896159392819096</v>
       </c>
       <c r="J10" t="n">
-        <v>451</v>
+        <v>457</v>
       </c>
       <c r="K10" t="n">
-        <v>425</v>
+        <v>431</v>
       </c>
       <c r="L10" t="n">
-        <v>0.001745689407172346</v>
+        <v>0.001929992546448211</v>
       </c>
       <c r="M10" t="n">
-        <v>7.591485789928004</v>
+        <v>7.547264780370901</v>
       </c>
       <c r="N10" t="n">
-        <v>97.39369734688495</v>
+        <v>96.50904850358744</v>
       </c>
       <c r="O10" t="n">
-        <v>9.868824516976931</v>
+        <v>9.823901898104818</v>
       </c>
       <c r="P10" t="n">
-        <v>324.0734228326386</v>
+        <v>324.0945935310593</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -27200,28 +27548,28 @@
         <v>0.1199</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.1295705376998298</v>
+        <v>-0.1313826191764146</v>
       </c>
       <c r="J11" t="n">
-        <v>451</v>
+        <v>457</v>
       </c>
       <c r="K11" t="n">
-        <v>418</v>
+        <v>424</v>
       </c>
       <c r="L11" t="n">
-        <v>0.01119470219990548</v>
+        <v>0.01173160151438801</v>
       </c>
       <c r="M11" t="n">
-        <v>7.04202398457786</v>
+        <v>7.029049334790795</v>
       </c>
       <c r="N11" t="n">
-        <v>78.85507496421539</v>
+        <v>78.58671787107242</v>
       </c>
       <c r="O11" t="n">
-        <v>8.880038004660531</v>
+        <v>8.864914995140811</v>
       </c>
       <c r="P11" t="n">
-        <v>323.576053001079</v>
+        <v>323.593416332632</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -27277,28 +27625,28 @@
         <v>0.0746</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.2138221691409361</v>
+        <v>-0.2058465182697814</v>
       </c>
       <c r="J12" t="n">
-        <v>451</v>
+        <v>457</v>
       </c>
       <c r="K12" t="n">
-        <v>419</v>
+        <v>425</v>
       </c>
       <c r="L12" t="n">
-        <v>0.02581815245106356</v>
+        <v>0.02456653880800252</v>
       </c>
       <c r="M12" t="n">
-        <v>7.116138983423163</v>
+        <v>7.086938994794237</v>
       </c>
       <c r="N12" t="n">
-        <v>91.33535530606561</v>
+        <v>90.54584178026609</v>
       </c>
       <c r="O12" t="n">
-        <v>9.556953243898686</v>
+        <v>9.515557880663964</v>
       </c>
       <c r="P12" t="n">
-        <v>316.1291703972805</v>
+        <v>316.0512657326789</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -27354,28 +27702,28 @@
         <v>0.0684</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.2353322925301727</v>
+        <v>-0.2336496915132169</v>
       </c>
       <c r="J13" t="n">
-        <v>451</v>
+        <v>457</v>
       </c>
       <c r="K13" t="n">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="L13" t="n">
-        <v>0.03097201763111268</v>
+        <v>0.03137744688104516</v>
       </c>
       <c r="M13" t="n">
-        <v>7.290281709166655</v>
+        <v>7.245217497733711</v>
       </c>
       <c r="N13" t="n">
-        <v>91.57590251183478</v>
+        <v>90.65239952946548</v>
       </c>
       <c r="O13" t="n">
-        <v>9.569529900252926</v>
+        <v>9.521155367363011</v>
       </c>
       <c r="P13" t="n">
-        <v>319.3725305289735</v>
+        <v>319.3560352464564</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -27412,7 +27760,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N452"/>
+  <dimension ref="A1:N458"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -58132,6 +58480,438 @@
         </is>
       </c>
     </row>
+    <row r="453">
+      <c r="A453" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-02 22:27:12+00:00</t>
+        </is>
+      </c>
+      <c r="B453" t="inlineStr">
+        <is>
+          <t>-46.38421806974727,168.02903472886308</t>
+        </is>
+      </c>
+      <c r="C453" t="inlineStr">
+        <is>
+          <t>-46.384062844139834,168.0281654234985</t>
+        </is>
+      </c>
+      <c r="D453" t="inlineStr">
+        <is>
+          <t>-46.38390928606088,168.02729541011118</t>
+        </is>
+      </c>
+      <c r="E453" t="inlineStr">
+        <is>
+          <t>-46.38373184233104,168.02643553806635</t>
+        </is>
+      </c>
+      <c r="F453" t="inlineStr">
+        <is>
+          <t>-46.38354793818667,168.02557840947406</t>
+        </is>
+      </c>
+      <c r="G453" t="inlineStr">
+        <is>
+          <t>-46.383476835047574,168.02467338584657</t>
+        </is>
+      </c>
+      <c r="H453" t="inlineStr">
+        <is>
+          <t>-46.38330373789996,168.02381166843233</t>
+        </is>
+      </c>
+      <c r="I453" t="inlineStr">
+        <is>
+          <t>-46.383122189642165,168.02295353988546</t>
+        </is>
+      </c>
+      <c r="J453" t="inlineStr">
+        <is>
+          <t>-46.383035075356815,168.02203539393977</t>
+        </is>
+      </c>
+      <c r="K453" t="inlineStr">
+        <is>
+          <t>-46.38294141838496,168.0211248863245</t>
+        </is>
+      </c>
+      <c r="L453" t="inlineStr">
+        <is>
+          <t>-46.38293180364836,168.02022372530976</t>
+        </is>
+      </c>
+      <c r="M453" t="inlineStr">
+        <is>
+          <t>-46.38290457903832,168.01932707689022</t>
+        </is>
+      </c>
+      <c r="N453" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-10 22:26:57+00:00</t>
+        </is>
+      </c>
+      <c r="B454" t="inlineStr">
+        <is>
+          <t>-46.38422056933992,168.02903366765872</t>
+        </is>
+      </c>
+      <c r="C454" t="inlineStr">
+        <is>
+          <t>-46.384038474312675,168.02817576997822</t>
+        </is>
+      </c>
+      <c r="D454" t="inlineStr">
+        <is>
+          <t>-46.383856823634936,168.02731768414728</t>
+        </is>
+      </c>
+      <c r="E454" t="inlineStr">
+        <is>
+          <t>-46.38367730298657,168.02645869444552</t>
+        </is>
+      </c>
+      <c r="F454" t="inlineStr">
+        <is>
+          <t>-46.3834956627955,168.025600605138</t>
+        </is>
+      </c>
+      <c r="G454" t="inlineStr">
+        <is>
+          <t>-46.383356195458745,168.02472460969787</t>
+        </is>
+      </c>
+      <c r="H454" t="inlineStr">
+        <is>
+          <t>-46.383230863057896,168.0238426120247</t>
+        </is>
+      </c>
+      <c r="I454" t="inlineStr">
+        <is>
+          <t>-46.38305816190814,168.02298072752166</t>
+        </is>
+      </c>
+      <c r="J454" t="inlineStr">
+        <is>
+          <t>-46.38291730545526,168.02206637635535</t>
+        </is>
+      </c>
+      <c r="K454" t="inlineStr">
+        <is>
+          <t>-46.382857165082534,168.0211325868386</t>
+        </is>
+      </c>
+      <c r="L454" t="inlineStr">
+        <is>
+          <t>-46.38284718382376,168.0202301207889</t>
+        </is>
+      </c>
+      <c r="M454" t="inlineStr">
+        <is>
+          <t>-46.382850272978615,168.01933118189734</t>
+        </is>
+      </c>
+      <c r="N454" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-18 22:27:07+00:00</t>
+        </is>
+      </c>
+      <c r="B455" t="inlineStr">
+        <is>
+          <t>-46.38438045704631,168.02896578695265</t>
+        </is>
+      </c>
+      <c r="C455" t="inlineStr">
+        <is>
+          <t>-46.384112028362395,168.02814454176035</t>
+        </is>
+      </c>
+      <c r="D455" t="inlineStr">
+        <is>
+          <t>-46.3839636159816,168.02727234313858</t>
+        </is>
+      </c>
+      <c r="E455" t="inlineStr">
+        <is>
+          <t>-46.383719577697036,168.02644074540376</t>
+        </is>
+      </c>
+      <c r="F455" t="inlineStr">
+        <is>
+          <t>-46.383584354263384,168.02556294750437</t>
+        </is>
+      </c>
+      <c r="G455" t="inlineStr">
+        <is>
+          <t>-46.38346074594027,168.02468021733418</t>
+        </is>
+      </c>
+      <c r="H455" t="inlineStr">
+        <is>
+          <t>-46.383258444312396,168.02383090068156</t>
+        </is>
+      </c>
+      <c r="I455" t="inlineStr">
+        <is>
+          <t>-46.38307217413227,168.022974777618</t>
+        </is>
+      </c>
+      <c r="J455" t="inlineStr">
+        <is>
+          <t>-46.38300259472883,168.022043938824</t>
+        </is>
+      </c>
+      <c r="K455" t="inlineStr">
+        <is>
+          <t>-46.38300315852405,168.02111924342796</t>
+        </is>
+      </c>
+      <c r="L455" t="inlineStr">
+        <is>
+          <t>-46.38287453931123,168.02022805329273</t>
+        </is>
+      </c>
+      <c r="M455" t="inlineStr">
+        <is>
+          <t>-46.382918006032035,168.0193260619388</t>
+        </is>
+      </c>
+      <c r="N455" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-04 22:20:50+00:00</t>
+        </is>
+      </c>
+      <c r="B456" t="inlineStr">
+        <is>
+          <t>-46.38428633447912,168.0290057469679</t>
+        </is>
+      </c>
+      <c r="C456" t="inlineStr">
+        <is>
+          <t>-46.38408992222799,168.02815392718415</t>
+        </is>
+      </c>
+      <c r="D456" t="inlineStr">
+        <is>
+          <t>-46.38391224533225,168.02729415368827</t>
+        </is>
+      </c>
+      <c r="E456" t="inlineStr">
+        <is>
+          <t>-46.38375105810661,168.026427379397</t>
+        </is>
+      </c>
+      <c r="F456" t="inlineStr">
+        <is>
+          <t>-46.383653135389245,168.0255337435335</t>
+        </is>
+      </c>
+      <c r="G456" t="inlineStr">
+        <is>
+          <t>-46.38347229562093,168.02467531330245</t>
+        </is>
+      </c>
+      <c r="H456" t="inlineStr">
+        <is>
+          <t>-46.3833261907613,168.02380213464033</t>
+        </is>
+      </c>
+      <c r="I456" t="inlineStr">
+        <is>
+          <t>-46.383171540243026,168.02293258444465</t>
+        </is>
+      </c>
+      <c r="J456" t="inlineStr">
+        <is>
+          <t>-46.38307179835115,168.02202573297495</t>
+        </is>
+      </c>
+      <c r="K456" t="inlineStr">
+        <is>
+          <t>-46.38308147563396,168.02111208541038</t>
+        </is>
+      </c>
+      <c r="L456" t="inlineStr">
+        <is>
+          <t>-46.38297062856481,168.0202207909523</t>
+        </is>
+      </c>
+      <c r="M456" t="inlineStr">
+        <is>
+          <t>-46.38294635523019,168.01932391900996</t>
+        </is>
+      </c>
+      <c r="N456" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-11 22:27:03+00:00</t>
+        </is>
+      </c>
+      <c r="B457" t="inlineStr">
+        <is>
+          <t>-46.384332102872854,168.0289863158803</t>
+        </is>
+      </c>
+      <c r="C457" t="inlineStr">
+        <is>
+          <t>-46.38413388045432,168.0281352641847</t>
+        </is>
+      </c>
+      <c r="D457" t="inlineStr">
+        <is>
+          <t>-46.38395149158952,168.02727749082266</t>
+        </is>
+      </c>
+      <c r="E457" t="inlineStr">
+        <is>
+          <t>-46.383782457391895,168.02641404781642</t>
+        </is>
+      </c>
+      <c r="F457" t="inlineStr">
+        <is>
+          <t>-46.38366054789089,168.02553059623358</t>
+        </is>
+      </c>
+      <c r="G457" t="inlineStr">
+        <is>
+          <t>-46.383539640021475,168.02464671860466</t>
+        </is>
+      </c>
+      <c r="H457" t="inlineStr">
+        <is>
+          <t>-46.38338919667311,168.02377538142022</t>
+        </is>
+      </c>
+      <c r="I457" t="inlineStr">
+        <is>
+          <t>-46.38325560124606,168.02289689003965</t>
+        </is>
+      </c>
+      <c r="J457" t="inlineStr">
+        <is>
+          <t>-46.38306260655489,168.02202815112398</t>
+        </is>
+      </c>
+      <c r="K457" t="inlineStr">
+        <is>
+          <t>-46.383014592057776,168.0211181984291</t>
+        </is>
+      </c>
+      <c r="L457" t="inlineStr">
+        <is>
+          <t>-46.382976287368805,168.02022036326366</t>
+        </is>
+      </c>
+      <c r="M457" t="inlineStr">
+        <is>
+          <t>-46.38299997349149,168.01931986597162</t>
+        </is>
+      </c>
+      <c r="N457" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-12 22:20:57+00:00</t>
+        </is>
+      </c>
+      <c r="B458" t="inlineStr">
+        <is>
+          <t>-46.3843864043507,168.02896326200158</t>
+        </is>
+      </c>
+      <c r="C458" t="inlineStr">
+        <is>
+          <t>-46.38410852168447,168.028146030563</t>
+        </is>
+      </c>
+      <c r="D458" t="inlineStr">
+        <is>
+          <t>-46.38388986404631,168.0273036561453</t>
+        </is>
+      </c>
+      <c r="E458" t="inlineStr">
+        <is>
+          <t>-46.38377223094965,168.02641838978468</t>
+        </is>
+      </c>
+      <c r="F458" t="inlineStr">
+        <is>
+          <t>-46.38361646074267,168.02554931533496</t>
+        </is>
+      </c>
+      <c r="G458" t="inlineStr">
+        <is>
+          <t>-46.38352386695251,168.02465341591915</t>
+        </is>
+      </c>
+      <c r="H458" t="inlineStr">
+        <is>
+          <t>-46.383333732509094,168.02379893230906</t>
+        </is>
+      </c>
+      <c r="I458" t="inlineStr">
+        <is>
+          <t>-46.38317253759792,168.02293216094355</t>
+        </is>
+      </c>
+      <c r="J458" t="inlineStr">
+        <is>
+          <t>-46.38301386351828,168.02204097427364</t>
+        </is>
+      </c>
+      <c r="K458" t="inlineStr">
+        <is>
+          <t>-46.38297216576712,168.02112207609187</t>
+        </is>
+      </c>
+      <c r="L458" t="inlineStr">
+        <is>
+          <t>-46.382909327154614,168.020225424063</t>
+        </is>
+      </c>
+      <c r="M458" t="inlineStr">
+        <is>
+          <t>-46.38287895112367,168.01932901411155</t>
+        </is>
+      </c>
+      <c r="N458" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0535/nzd0535.xlsx
+++ b/data/nzd0535/nzd0535.xlsx
@@ -26700,7 +26700,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W13"/>
+  <dimension ref="A1:X13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26791,35 +26791,40 @@
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
+          <t>ERODIBILITY</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
           <t>geometry</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>land_x</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>land_y</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>sea_x</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>sea_y</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>center_x</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>center_y</t>
         </is>
@@ -26878,27 +26883,28 @@
       <c r="P2" t="n">
         <v>323.8121714386548</v>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr">
         <is>
           <t>LINESTRING (168.03021618620556 -46.38143506608321, 168.0270119560904 -46.38898209082498)</t>
         </is>
       </c>
-      <c r="R2" t="n">
+      <c r="S2" t="n">
         <v>168.0302161862056</v>
       </c>
-      <c r="S2" t="n">
+      <c r="T2" t="n">
         <v>-46.38143506608321</v>
       </c>
-      <c r="T2" t="n">
+      <c r="U2" t="n">
         <v>168.0270119560904</v>
       </c>
-      <c r="U2" t="n">
+      <c r="V2" t="n">
         <v>-46.38898209082498</v>
       </c>
-      <c r="V2" t="n">
+      <c r="W2" t="n">
         <v>168.028614071148</v>
       </c>
-      <c r="W2" t="n">
+      <c r="X2" t="n">
         <v>-46.3852085784541</v>
       </c>
     </row>
@@ -26955,27 +26961,28 @@
       <c r="P3" t="n">
         <v>310.7835149103293</v>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr">
         <is>
           <t>LINESTRING (168.02934416796506 -46.381286299090576, 168.02613986470408 -46.38883330956774)</t>
         </is>
       </c>
-      <c r="R3" t="n">
+      <c r="S3" t="n">
         <v>168.0293441679651</v>
       </c>
-      <c r="S3" t="n">
+      <c r="T3" t="n">
         <v>-46.38128629909058</v>
       </c>
-      <c r="T3" t="n">
+      <c r="U3" t="n">
         <v>168.0261398647041</v>
       </c>
-      <c r="U3" t="n">
+      <c r="V3" t="n">
         <v>-46.38883330956774</v>
       </c>
-      <c r="V3" t="n">
+      <c r="W3" t="n">
         <v>168.0277420163346</v>
       </c>
-      <c r="W3" t="n">
+      <c r="X3" t="n">
         <v>-46.38505980432916</v>
       </c>
     </row>
@@ -27032,27 +27039,28 @@
       <c r="P4" t="n">
         <v>312.422182510542</v>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr">
         <is>
           <t>LINESTRING (168.0284721497241 -46.3811375316929, 168.02526777331866 -46.38868452790433)</t>
         </is>
       </c>
-      <c r="R4" t="n">
+      <c r="S4" t="n">
         <v>168.0284721497241</v>
       </c>
-      <c r="S4" t="n">
+      <c r="T4" t="n">
         <v>-46.3811375316929</v>
       </c>
-      <c r="T4" t="n">
+      <c r="U4" t="n">
         <v>168.0252677733187</v>
       </c>
-      <c r="U4" t="n">
+      <c r="V4" t="n">
         <v>-46.38868452790433</v>
       </c>
-      <c r="V4" t="n">
+      <c r="W4" t="n">
         <v>168.0268699615214</v>
       </c>
-      <c r="W4" t="n">
+      <c r="X4" t="n">
         <v>-46.38491102979862</v>
       </c>
     </row>
@@ -27109,27 +27117,28 @@
       <c r="P5" t="n">
         <v>311.6791981741442</v>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr">
         <is>
           <t>LINESTRING (168.0276001314827 -46.38098876389017, 168.02439568193412 -46.38853574583476)</t>
         </is>
       </c>
-      <c r="R5" t="n">
+      <c r="S5" t="n">
         <v>168.0276001314827</v>
       </c>
-      <c r="S5" t="n">
+      <c r="T5" t="n">
         <v>-46.38098876389017</v>
       </c>
-      <c r="T5" t="n">
+      <c r="U5" t="n">
         <v>168.0243956819341</v>
       </c>
-      <c r="U5" t="n">
+      <c r="V5" t="n">
         <v>-46.38853574583476</v>
       </c>
-      <c r="V5" t="n">
+      <c r="W5" t="n">
         <v>168.0259979067084</v>
       </c>
-      <c r="W5" t="n">
+      <c r="X5" t="n">
         <v>-46.38476225486247</v>
       </c>
     </row>
@@ -27186,27 +27195,28 @@
       <c r="P6" t="n">
         <v>314.4075656443977</v>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr">
         <is>
           <t>LINESTRING (168.02672811324084 -46.380839995682386, 168.0235235905505 -46.38838696335903)</t>
         </is>
       </c>
-      <c r="R6" t="n">
+      <c r="S6" t="n">
         <v>168.0267281132408</v>
       </c>
-      <c r="S6" t="n">
+      <c r="T6" t="n">
         <v>-46.38083999568239</v>
       </c>
-      <c r="T6" t="n">
+      <c r="U6" t="n">
         <v>168.0235235905505</v>
       </c>
-      <c r="U6" t="n">
+      <c r="V6" t="n">
         <v>-46.38838696335903</v>
       </c>
-      <c r="V6" t="n">
+      <c r="W6" t="n">
         <v>168.0251258518957</v>
       </c>
-      <c r="W6" t="n">
+      <c r="X6" t="n">
         <v>-46.38461347952071</v>
       </c>
     </row>
@@ -27263,27 +27273,28 @@
       <c r="P7" t="n">
         <v>317.0391810073371</v>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr">
         <is>
           <t>LINESTRING (168.02585609499857 -46.380691227069576, 168.0226514991678 -46.388238180477124)</t>
         </is>
       </c>
-      <c r="R7" t="n">
+      <c r="S7" t="n">
         <v>168.0258560949986</v>
       </c>
-      <c r="S7" t="n">
+      <c r="T7" t="n">
         <v>-46.38069122706958</v>
       </c>
-      <c r="T7" t="n">
+      <c r="U7" t="n">
         <v>168.0226514991678</v>
       </c>
-      <c r="U7" t="n">
+      <c r="V7" t="n">
         <v>-46.38823818047712</v>
       </c>
-      <c r="V7" t="n">
+      <c r="W7" t="n">
         <v>168.0242537970832</v>
       </c>
-      <c r="W7" t="n">
+      <c r="X7" t="n">
         <v>-46.38446470377335</v>
       </c>
     </row>
@@ -27340,27 +27351,28 @@
       <c r="P8" t="n">
         <v>318.490064327082</v>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr">
         <is>
           <t>LINESTRING (168.0249840767558 -46.38054245805171, 168.021779407786 -46.388089397189056)</t>
         </is>
       </c>
-      <c r="R8" t="n">
+      <c r="S8" t="n">
         <v>168.0249840767558</v>
       </c>
-      <c r="S8" t="n">
+      <c r="T8" t="n">
         <v>-46.38054245805171</v>
       </c>
-      <c r="T8" t="n">
+      <c r="U8" t="n">
         <v>168.021779407786</v>
       </c>
-      <c r="U8" t="n">
+      <c r="V8" t="n">
         <v>-46.38808939718906</v>
       </c>
-      <c r="V8" t="n">
+      <c r="W8" t="n">
         <v>168.0233817422709</v>
       </c>
-      <c r="W8" t="n">
+      <c r="X8" t="n">
         <v>-46.38431592762038</v>
       </c>
     </row>
@@ -27417,27 +27429,28 @@
       <c r="P9" t="n">
         <v>321.8027307270169</v>
       </c>
-      <c r="Q9" t="inlineStr">
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr">
         <is>
           <t>LINESTRING (168.02411205851257 -46.38039368862877, 168.0209073164052 -46.387940613494834)</t>
         </is>
       </c>
-      <c r="R9" t="n">
+      <c r="S9" t="n">
         <v>168.0241120585126</v>
       </c>
-      <c r="S9" t="n">
+      <c r="T9" t="n">
         <v>-46.38039368862877</v>
       </c>
-      <c r="T9" t="n">
+      <c r="U9" t="n">
         <v>168.0209073164052</v>
       </c>
-      <c r="U9" t="n">
+      <c r="V9" t="n">
         <v>-46.38794061349483</v>
       </c>
-      <c r="V9" t="n">
+      <c r="W9" t="n">
         <v>168.0225096874589</v>
       </c>
-      <c r="W9" t="n">
+      <c r="X9" t="n">
         <v>-46.3841671510618</v>
       </c>
     </row>
@@ -27494,27 +27507,28 @@
       <c r="P10" t="n">
         <v>324.0945935310593</v>
       </c>
-      <c r="Q10" t="inlineStr">
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="inlineStr">
         <is>
           <t>LINESTRING (168.0227883334851 -46.380172842622535, 168.0207524295411 -46.387911333519575)</t>
         </is>
       </c>
-      <c r="R10" t="n">
+      <c r="S10" t="n">
         <v>168.0227883334851</v>
       </c>
-      <c r="S10" t="n">
+      <c r="T10" t="n">
         <v>-46.38017284262254</v>
       </c>
-      <c r="T10" t="n">
+      <c r="U10" t="n">
         <v>168.0207524295411</v>
       </c>
-      <c r="U10" t="n">
+      <c r="V10" t="n">
         <v>-46.38791133351958</v>
       </c>
-      <c r="V10" t="n">
+      <c r="W10" t="n">
         <v>168.0217703815131</v>
       </c>
-      <c r="W10" t="n">
+      <c r="X10" t="n">
         <v>-46.38404208807106</v>
       </c>
     </row>
@@ -27571,27 +27585,28 @@
       <c r="P11" t="n">
         <v>323.593416332632</v>
       </c>
-      <c r="Q11" t="inlineStr">
+      <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="inlineStr">
         <is>
           <t>LINESTRING (168.0213833917115 -46.38011283726478, 168.02066589598155 -46.38796266484292)</t>
         </is>
       </c>
-      <c r="R11" t="n">
+      <c r="S11" t="n">
         <v>168.0213833917115</v>
       </c>
-      <c r="S11" t="n">
+      <c r="T11" t="n">
         <v>-46.38011283726478</v>
       </c>
-      <c r="T11" t="n">
+      <c r="U11" t="n">
         <v>168.0206658959816</v>
       </c>
-      <c r="U11" t="n">
+      <c r="V11" t="n">
         <v>-46.38796266484292</v>
       </c>
-      <c r="V11" t="n">
+      <c r="W11" t="n">
         <v>168.0210246438465</v>
       </c>
-      <c r="W11" t="n">
+      <c r="X11" t="n">
         <v>-46.38403775105385</v>
       </c>
     </row>
@@ -27648,27 +27663,28 @@
       <c r="P12" t="n">
         <v>316.0512657326789</v>
       </c>
-      <c r="Q12" t="inlineStr">
+      <c r="Q12" t="inlineStr"/>
+      <c r="R12" t="inlineStr">
         <is>
           <t>LINESTRING (168.02043731837514 -46.38010549218393, 168.01984362458194 -46.38796025927818)</t>
         </is>
       </c>
-      <c r="R12" t="n">
+      <c r="S12" t="n">
         <v>168.0204373183751</v>
       </c>
-      <c r="S12" t="n">
+      <c r="T12" t="n">
         <v>-46.38010549218393</v>
       </c>
-      <c r="T12" t="n">
+      <c r="U12" t="n">
         <v>168.0198436245819</v>
       </c>
-      <c r="U12" t="n">
+      <c r="V12" t="n">
         <v>-46.38796025927818</v>
       </c>
-      <c r="V12" t="n">
+      <c r="W12" t="n">
         <v>168.0201404714786</v>
       </c>
-      <c r="W12" t="n">
+      <c r="X12" t="n">
         <v>-46.38403287573105</v>
       </c>
     </row>
@@ -27725,27 +27741,28 @@
       <c r="P13" t="n">
         <v>319.3560352464564</v>
       </c>
-      <c r="Q13" t="inlineStr">
+      <c r="Q13" t="inlineStr"/>
+      <c r="R13" t="inlineStr">
         <is>
           <t>LINESTRING (168.01953906954884 -46.3800998614049, 168.01894528772326 -46.38795462084494)</t>
         </is>
       </c>
-      <c r="R13" t="n">
+      <c r="S13" t="n">
         <v>168.0195390695488</v>
       </c>
-      <c r="S13" t="n">
+      <c r="T13" t="n">
         <v>-46.3800998614049</v>
       </c>
-      <c r="T13" t="n">
+      <c r="U13" t="n">
         <v>168.0189452877233</v>
       </c>
-      <c r="U13" t="n">
+      <c r="V13" t="n">
         <v>-46.38795462084494</v>
       </c>
-      <c r="V13" t="n">
+      <c r="W13" t="n">
         <v>168.019242178636</v>
       </c>
-      <c r="W13" t="n">
+      <c r="X13" t="n">
         <v>-46.38402724112492</v>
       </c>
     </row>

--- a/data/nzd0535/nzd0535.xlsx
+++ b/data/nzd0535/nzd0535.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N458"/>
+  <dimension ref="A1:N465"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21528,6 +21528,330 @@
         </is>
       </c>
     </row>
+    <row r="459">
+      <c r="A459" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-09 22:20:38+00:00</t>
+        </is>
+      </c>
+      <c r="B459" t="n">
+        <v>328.86</v>
+      </c>
+      <c r="C459" t="n">
+        <v>322.8294736842105</v>
+      </c>
+      <c r="D459" t="n">
+        <v>325.6566666666667</v>
+      </c>
+      <c r="E459" t="n">
+        <v>316.4158823529411</v>
+      </c>
+      <c r="F459" t="n">
+        <v>317.92</v>
+      </c>
+      <c r="G459" t="inlineStr"/>
+      <c r="H459" t="inlineStr"/>
+      <c r="I459" t="n">
+        <v>322.4814285714286</v>
+      </c>
+      <c r="J459" t="inlineStr"/>
+      <c r="K459" t="inlineStr"/>
+      <c r="L459" t="inlineStr"/>
+      <c r="M459" t="inlineStr"/>
+      <c r="N459" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-09 22:26:50+00:00</t>
+        </is>
+      </c>
+      <c r="B460" t="n">
+        <v>328.93</v>
+      </c>
+      <c r="C460" t="n">
+        <v>317.2626315789473</v>
+      </c>
+      <c r="D460" t="n">
+        <v>319.8766666666667</v>
+      </c>
+      <c r="E460" t="n">
+        <v>322.3576470588235</v>
+      </c>
+      <c r="F460" t="n">
+        <v>325.51</v>
+      </c>
+      <c r="G460" t="n">
+        <v>327.3866666666667</v>
+      </c>
+      <c r="H460" t="n">
+        <v>326.89</v>
+      </c>
+      <c r="I460" t="n">
+        <v>328.7457142857143</v>
+      </c>
+      <c r="J460" t="n">
+        <v>331.02</v>
+      </c>
+      <c r="K460" t="n">
+        <v>319.1326315789473</v>
+      </c>
+      <c r="L460" t="n">
+        <v>315.9307692307692</v>
+      </c>
+      <c r="M460" t="n">
+        <v>318.9333333333333</v>
+      </c>
+      <c r="N460" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-10 22:20:22+00:00</t>
+        </is>
+      </c>
+      <c r="B461" t="n">
+        <v>327.6</v>
+      </c>
+      <c r="C461" t="n">
+        <v>316.478947368421</v>
+      </c>
+      <c r="D461" t="n">
+        <v>316.49</v>
+      </c>
+      <c r="E461" t="n">
+        <v>319.5105882352941</v>
+      </c>
+      <c r="F461" t="n">
+        <v>322.92</v>
+      </c>
+      <c r="G461" t="n">
+        <v>324.01</v>
+      </c>
+      <c r="H461" t="n">
+        <v>324.16</v>
+      </c>
+      <c r="I461" t="n">
+        <v>324.2757142857143</v>
+      </c>
+      <c r="J461" t="n">
+        <v>326.32</v>
+      </c>
+      <c r="K461" t="n">
+        <v>318.968947368421</v>
+      </c>
+      <c r="L461" t="n">
+        <v>309.6969230769231</v>
+      </c>
+      <c r="M461" t="n">
+        <v>315.08</v>
+      </c>
+      <c r="N461" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-18 22:20:37+00:00</t>
+        </is>
+      </c>
+      <c r="B462" t="n">
+        <v>320.21</v>
+      </c>
+      <c r="C462" t="n">
+        <v>312.1936842105263</v>
+      </c>
+      <c r="D462" t="n">
+        <v>312.8033333333333</v>
+      </c>
+      <c r="E462" t="n">
+        <v>314.2258823529411</v>
+      </c>
+      <c r="F462" t="n">
+        <v>318.11</v>
+      </c>
+      <c r="G462" t="n">
+        <v>319.5233333333334</v>
+      </c>
+      <c r="H462" t="n">
+        <v>318.89</v>
+      </c>
+      <c r="I462" t="n">
+        <v>320.7828571428572</v>
+      </c>
+      <c r="J462" t="n">
+        <v>329.42</v>
+      </c>
+      <c r="K462" t="n">
+        <v>324.7436842105263</v>
+      </c>
+      <c r="L462" t="n">
+        <v>305.9415384615385</v>
+      </c>
+      <c r="M462" t="n">
+        <v>316.1466666666667</v>
+      </c>
+      <c r="N462" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-25 22:26:41+00:00</t>
+        </is>
+      </c>
+      <c r="B463" t="n">
+        <v>323.26</v>
+      </c>
+      <c r="C463" t="n">
+        <v>320.3321052631579</v>
+      </c>
+      <c r="D463" t="n">
+        <v>323.4066666666666</v>
+      </c>
+      <c r="E463" t="n">
+        <v>320.3129411764706</v>
+      </c>
+      <c r="F463" t="n">
+        <v>325.26</v>
+      </c>
+      <c r="G463" t="n">
+        <v>321.7266666666666</v>
+      </c>
+      <c r="H463" t="n">
+        <v>315.74</v>
+      </c>
+      <c r="I463" t="n">
+        <v>316.5685714285714</v>
+      </c>
+      <c r="J463" t="n">
+        <v>325.95</v>
+      </c>
+      <c r="K463" t="n">
+        <v>313.8721052631579</v>
+      </c>
+      <c r="L463" t="n">
+        <v>307.6392307692308</v>
+      </c>
+      <c r="M463" t="n">
+        <v>312.3233333333333</v>
+      </c>
+      <c r="N463" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-03 22:26:22+00:00</t>
+        </is>
+      </c>
+      <c r="B464" t="n">
+        <v>324.74</v>
+      </c>
+      <c r="C464" t="n">
+        <v>316.8857894736842</v>
+      </c>
+      <c r="D464" t="n">
+        <v>311.94</v>
+      </c>
+      <c r="E464" t="n">
+        <v>318.5970588235294</v>
+      </c>
+      <c r="F464" t="n">
+        <v>321.22</v>
+      </c>
+      <c r="G464" t="n">
+        <v>325.73</v>
+      </c>
+      <c r="H464" t="n">
+        <v>315.45</v>
+      </c>
+      <c r="I464" t="n">
+        <v>315.5857142857143</v>
+      </c>
+      <c r="J464" t="n">
+        <v>325.01</v>
+      </c>
+      <c r="K464" t="n">
+        <v>318.4057894736842</v>
+      </c>
+      <c r="L464" t="n">
+        <v>309.4523076923077</v>
+      </c>
+      <c r="M464" t="n">
+        <v>312.37</v>
+      </c>
+      <c r="N464" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-04 22:20:29+00:00</t>
+        </is>
+      </c>
+      <c r="B465" t="n">
+        <v>323.85</v>
+      </c>
+      <c r="C465" t="n">
+        <v>316.9331578947368</v>
+      </c>
+      <c r="D465" t="n">
+        <v>314.1966666666667</v>
+      </c>
+      <c r="E465" t="n">
+        <v>311.9964705882353</v>
+      </c>
+      <c r="F465" t="n">
+        <v>317.865</v>
+      </c>
+      <c r="G465" t="n">
+        <v>319.3666666666667</v>
+      </c>
+      <c r="H465" t="n">
+        <v>316.885</v>
+      </c>
+      <c r="I465" t="n">
+        <v>322.84</v>
+      </c>
+      <c r="J465" t="n">
+        <v>327.955</v>
+      </c>
+      <c r="K465" t="n">
+        <v>325.6531578947368</v>
+      </c>
+      <c r="L465" t="n">
+        <v>306.9930769230769</v>
+      </c>
+      <c r="M465" t="n">
+        <v>313.3533333333333</v>
+      </c>
+      <c r="N465" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -21539,7 +21863,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B514"/>
+  <dimension ref="A1:B521"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26687,6 +27011,76 @@
       </c>
       <c r="B514" t="n">
         <v>0.61</v>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" t="inlineStr">
+        <is>
+          <t>2025-03-09 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B515" t="n">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" t="inlineStr">
+        <is>
+          <t>2025-04-09 22:30:00+00:00</t>
+        </is>
+      </c>
+      <c r="B516" t="n">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" t="inlineStr">
+        <is>
+          <t>2025-04-10 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B517" t="n">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" t="inlineStr">
+        <is>
+          <t>2025-04-18 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B518" t="n">
+        <v>-0.62</v>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" t="inlineStr">
+        <is>
+          <t>2025-04-25 22:30:00+00:00</t>
+        </is>
+      </c>
+      <c r="B519" t="n">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" t="inlineStr">
+        <is>
+          <t>2025-05-03 22:30:00+00:00</t>
+        </is>
+      </c>
+      <c r="B520" t="n">
+        <v>-0.54</v>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" t="inlineStr">
+        <is>
+          <t>2025-05-04 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B521" t="n">
+        <v>-0.07000000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -26860,28 +27254,28 @@
         <v>0.1208</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1835170252346733</v>
+        <v>0.1730993005072525</v>
       </c>
       <c r="J2" t="n">
-        <v>457</v>
+        <v>464</v>
       </c>
       <c r="K2" t="n">
-        <v>405</v>
+        <v>412</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01854853300347348</v>
+        <v>0.01706656466788681</v>
       </c>
       <c r="M2" t="n">
-        <v>7.542141203763521</v>
+        <v>7.46667314972114</v>
       </c>
       <c r="N2" t="n">
-        <v>95.90991622157536</v>
+        <v>94.59912399409839</v>
       </c>
       <c r="O2" t="n">
-        <v>9.793360823617975</v>
+        <v>9.726208099464991</v>
       </c>
       <c r="P2" t="n">
-        <v>323.8121714386548</v>
+        <v>323.9167318809547</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -26938,28 +27332,28 @@
         <v>0.114</v>
       </c>
       <c r="I3" t="n">
-        <v>0.3352185744597041</v>
+        <v>0.3292081830357555</v>
       </c>
       <c r="J3" t="n">
-        <v>457</v>
+        <v>464</v>
       </c>
       <c r="K3" t="n">
-        <v>410</v>
+        <v>417</v>
       </c>
       <c r="L3" t="n">
-        <v>0.06721712853220063</v>
+        <v>0.06697543509264658</v>
       </c>
       <c r="M3" t="n">
-        <v>6.851828018360979</v>
+        <v>6.788224639877517</v>
       </c>
       <c r="N3" t="n">
-        <v>83.44616099581705</v>
+        <v>82.26028539899869</v>
       </c>
       <c r="O3" t="n">
-        <v>9.134887026987091</v>
+        <v>9.06974560828465</v>
       </c>
       <c r="P3" t="n">
-        <v>310.7835149103293</v>
+        <v>310.8442120446272</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -27016,28 +27410,28 @@
         <v>0.08500000000000001</v>
       </c>
       <c r="I4" t="n">
-        <v>0.2503543445375682</v>
+        <v>0.2467503281651134</v>
       </c>
       <c r="J4" t="n">
-        <v>457</v>
+        <v>464</v>
       </c>
       <c r="K4" t="n">
-        <v>410</v>
+        <v>417</v>
       </c>
       <c r="L4" t="n">
-        <v>0.04335460774997657</v>
+        <v>0.04335290658777757</v>
       </c>
       <c r="M4" t="n">
-        <v>6.866445308598462</v>
+        <v>6.829744684719858</v>
       </c>
       <c r="N4" t="n">
-        <v>73.9420171550945</v>
+        <v>73.1327320379455</v>
       </c>
       <c r="O4" t="n">
-        <v>8.598954422201254</v>
+        <v>8.551767772685686</v>
       </c>
       <c r="P4" t="n">
-        <v>312.422182510542</v>
+        <v>312.4588144661428</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -27094,28 +27488,28 @@
         <v>0.1024</v>
       </c>
       <c r="I5" t="n">
-        <v>0.2653915409509142</v>
+        <v>0.2625820852753613</v>
       </c>
       <c r="J5" t="n">
-        <v>457</v>
+        <v>464</v>
       </c>
       <c r="K5" t="n">
-        <v>419</v>
+        <v>426</v>
       </c>
       <c r="L5" t="n">
-        <v>0.04460606651439691</v>
+        <v>0.04508543875327542</v>
       </c>
       <c r="M5" t="n">
-        <v>6.773260938007678</v>
+        <v>6.708717875563758</v>
       </c>
       <c r="N5" t="n">
-        <v>81.48705058337504</v>
+        <v>80.34545447964763</v>
       </c>
       <c r="O5" t="n">
-        <v>9.027017812288566</v>
+        <v>8.963562599750594</v>
       </c>
       <c r="P5" t="n">
-        <v>311.6791981741442</v>
+        <v>311.7071732717982</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -27172,28 +27566,28 @@
         <v>0.0951</v>
       </c>
       <c r="I6" t="n">
-        <v>0.2085614741074979</v>
+        <v>0.2132580776397517</v>
       </c>
       <c r="J6" t="n">
-        <v>457</v>
+        <v>464</v>
       </c>
       <c r="K6" t="n">
-        <v>421</v>
+        <v>428</v>
       </c>
       <c r="L6" t="n">
-        <v>0.03214951322225845</v>
+        <v>0.03461635075644243</v>
       </c>
       <c r="M6" t="n">
-        <v>6.330301897455166</v>
+        <v>6.274186779317279</v>
       </c>
       <c r="N6" t="n">
-        <v>70.36082975740669</v>
+        <v>69.40614900479264</v>
       </c>
       <c r="O6" t="n">
-        <v>8.388136250527092</v>
+        <v>8.331035290094061</v>
       </c>
       <c r="P6" t="n">
-        <v>314.4075656443977</v>
+        <v>314.3606372637198</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -27250,28 +27644,28 @@
         <v>0.08890000000000001</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1550586814055854</v>
+        <v>0.1602620847994898</v>
       </c>
       <c r="J7" t="n">
-        <v>457</v>
+        <v>464</v>
       </c>
       <c r="K7" t="n">
-        <v>426</v>
+        <v>432</v>
       </c>
       <c r="L7" t="n">
-        <v>0.01662253035189898</v>
+        <v>0.01822270112630497</v>
       </c>
       <c r="M7" t="n">
-        <v>6.665648743705948</v>
+        <v>6.610707313449927</v>
       </c>
       <c r="N7" t="n">
-        <v>76.71896196915341</v>
+        <v>75.82912871425988</v>
       </c>
       <c r="O7" t="n">
-        <v>8.758936120851288</v>
+        <v>8.707992232096895</v>
       </c>
       <c r="P7" t="n">
-        <v>317.0391810073371</v>
+        <v>316.9874602946305</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -27328,28 +27722,28 @@
         <v>0.0887</v>
       </c>
       <c r="I8" t="n">
-        <v>0.02217375962200369</v>
+        <v>0.02381170432106725</v>
       </c>
       <c r="J8" t="n">
-        <v>457</v>
+        <v>464</v>
       </c>
       <c r="K8" t="n">
-        <v>419</v>
+        <v>425</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0003224060051449928</v>
+        <v>0.0003818723120798673</v>
       </c>
       <c r="M8" t="n">
-        <v>6.887015457229581</v>
+        <v>6.841716881597057</v>
       </c>
       <c r="N8" t="n">
-        <v>82.57063506253485</v>
+        <v>81.67800773642779</v>
       </c>
       <c r="O8" t="n">
-        <v>9.086838562587918</v>
+        <v>9.037588601857676</v>
       </c>
       <c r="P8" t="n">
-        <v>318.490064327082</v>
+        <v>318.4739371706776</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -27406,28 +27800,28 @@
         <v>0.08260000000000001</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.08306142268351879</v>
+        <v>-0.07697671337296305</v>
       </c>
       <c r="J9" t="n">
-        <v>457</v>
+        <v>464</v>
       </c>
       <c r="K9" t="n">
-        <v>429</v>
+        <v>436</v>
       </c>
       <c r="L9" t="n">
-        <v>0.004027406491988628</v>
+        <v>0.003569821055849243</v>
       </c>
       <c r="M9" t="n">
-        <v>7.289790833497838</v>
+        <v>7.233654823793204</v>
       </c>
       <c r="N9" t="n">
-        <v>91.98141709582896</v>
+        <v>90.84369682374732</v>
       </c>
       <c r="O9" t="n">
-        <v>9.590694296860315</v>
+        <v>9.531195980764814</v>
       </c>
       <c r="P9" t="n">
-        <v>321.8027307270169</v>
+        <v>321.742627975859</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -27484,28 +27878,28 @@
         <v>0.09180000000000001</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.05896159392819096</v>
+        <v>-0.04530834838845919</v>
       </c>
       <c r="J10" t="n">
-        <v>457</v>
+        <v>464</v>
       </c>
       <c r="K10" t="n">
-        <v>431</v>
+        <v>437</v>
       </c>
       <c r="L10" t="n">
-        <v>0.001929992546448211</v>
+        <v>0.001170516768276841</v>
       </c>
       <c r="M10" t="n">
-        <v>7.547264780370901</v>
+        <v>7.512816447449901</v>
       </c>
       <c r="N10" t="n">
-        <v>96.50904850358744</v>
+        <v>95.57731406088298</v>
       </c>
       <c r="O10" t="n">
-        <v>9.823901898104818</v>
+        <v>9.776365074038663</v>
       </c>
       <c r="P10" t="n">
-        <v>324.0945935310593</v>
+        <v>323.9590892364244</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -27562,28 +27956,28 @@
         <v>0.1199</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.1313826191764146</v>
+        <v>-0.1315939821103274</v>
       </c>
       <c r="J11" t="n">
-        <v>457</v>
+        <v>464</v>
       </c>
       <c r="K11" t="n">
-        <v>424</v>
+        <v>430</v>
       </c>
       <c r="L11" t="n">
-        <v>0.01173160151438801</v>
+        <v>0.01209422985518105</v>
       </c>
       <c r="M11" t="n">
-        <v>7.029049334790795</v>
+        <v>6.978514388613221</v>
       </c>
       <c r="N11" t="n">
-        <v>78.58671787107242</v>
+        <v>77.71418347808299</v>
       </c>
       <c r="O11" t="n">
-        <v>8.864914995140811</v>
+        <v>8.815564841692391</v>
       </c>
       <c r="P11" t="n">
-        <v>323.593416332632</v>
+        <v>323.5954831456214</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -27640,28 +28034,28 @@
         <v>0.0746</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.2058465182697814</v>
+        <v>-0.209905844386756</v>
       </c>
       <c r="J12" t="n">
-        <v>457</v>
+        <v>464</v>
       </c>
       <c r="K12" t="n">
-        <v>425</v>
+        <v>431</v>
       </c>
       <c r="L12" t="n">
-        <v>0.02456653880800252</v>
+        <v>0.02624208977491194</v>
       </c>
       <c r="M12" t="n">
-        <v>7.086938994794237</v>
+        <v>7.03331677608628</v>
       </c>
       <c r="N12" t="n">
-        <v>90.54584178026609</v>
+        <v>89.46122245891992</v>
       </c>
       <c r="O12" t="n">
-        <v>9.515557880663964</v>
+        <v>9.45839428544401</v>
       </c>
       <c r="P12" t="n">
-        <v>316.0512657326789</v>
+        <v>316.0914995717666</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -27718,28 +28112,28 @@
         <v>0.0684</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.2336496915132169</v>
+        <v>-0.229720799760264</v>
       </c>
       <c r="J13" t="n">
-        <v>457</v>
+        <v>464</v>
       </c>
       <c r="K13" t="n">
-        <v>407</v>
+        <v>413</v>
       </c>
       <c r="L13" t="n">
-        <v>0.03137744688104516</v>
+        <v>0.03129557106705272</v>
       </c>
       <c r="M13" t="n">
-        <v>7.245217497733711</v>
+        <v>7.16766599948676</v>
       </c>
       <c r="N13" t="n">
-        <v>90.65239952946548</v>
+        <v>89.44093795257342</v>
       </c>
       <c r="O13" t="n">
-        <v>9.521155367363011</v>
+        <v>9.457321922858153</v>
       </c>
       <c r="P13" t="n">
-        <v>319.3560352464564</v>
+        <v>319.3173905108854</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -27777,7 +28171,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N458"/>
+  <dimension ref="A1:N465"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -58929,6 +59323,486 @@
         </is>
       </c>
     </row>
+    <row r="459">
+      <c r="A459" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-09 22:20:38+00:00</t>
+        </is>
+      </c>
+      <c r="B459" t="inlineStr">
+        <is>
+          <t>-46.38426961306853,168.02901284607577</t>
+        </is>
+      </c>
+      <c r="C459" t="inlineStr">
+        <is>
+          <t>-46.38406885947671,168.02816286961905</t>
+        </is>
+      </c>
+      <c r="D459" t="inlineStr">
+        <is>
+          <t>-46.383944452546565,168.02728047940587</t>
+        </is>
+      </c>
+      <c r="E459" t="inlineStr">
+        <is>
+          <t>-46.38371602860902,168.0264422522806</t>
+        </is>
+      </c>
+      <c r="F459" t="inlineStr">
+        <is>
+          <t>-46.38358021705245,168.02556470413165</t>
+        </is>
+      </c>
+      <c r="G459" t="inlineStr"/>
+      <c r="H459" t="inlineStr"/>
+      <c r="I459" t="inlineStr">
+        <is>
+          <t>-46.383173202501176,168.02293187860948</t>
+        </is>
+      </c>
+      <c r="J459" t="inlineStr"/>
+      <c r="K459" t="inlineStr"/>
+      <c r="L459" t="inlineStr"/>
+      <c r="M459" t="inlineStr"/>
+      <c r="N459" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-09 22:26:50+00:00</t>
+        </is>
+      </c>
+      <c r="B460" t="inlineStr">
+        <is>
+          <t>-46.3842702164184,168.02901258992247</t>
+        </is>
+      </c>
+      <c r="C460" t="inlineStr">
+        <is>
+          <t>-46.38402087740946,168.0281832409315</t>
+        </is>
+      </c>
+      <c r="D460" t="inlineStr">
+        <is>
+          <t>-46.38389463335766,168.02730163123218</t>
+        </is>
+      </c>
+      <c r="E460" t="inlineStr">
+        <is>
+          <t>-46.38376724194649,168.02642050802731</t>
+        </is>
+      </c>
+      <c r="F460" t="inlineStr">
+        <is>
+          <t>-46.38364563669561,168.02553692742896</t>
+        </is>
+      </c>
+      <c r="G460" t="inlineStr">
+        <is>
+          <t>-46.38351303553685,168.02465801498334</t>
+        </is>
+      </c>
+      <c r="H460" t="inlineStr">
+        <is>
+          <t>-46.383359977790384,168.02378778818866</t>
+        </is>
+      </c>
+      <c r="I460" t="inlineStr">
+        <is>
+          <t>-46.3832271951055,168.02290895201176</t>
+        </is>
+      </c>
+      <c r="J460" t="inlineStr">
+        <is>
+          <t>-46.383098489912896,168.02201871103685</t>
+        </is>
+      </c>
+      <c r="K460" t="inlineStr">
+        <is>
+          <t>-46.38297406270505,168.0211219027164</t>
+        </is>
+      </c>
+      <c r="L460" t="inlineStr">
+        <is>
+          <t>-46.382939794983855,168.02022312133127</t>
+        </is>
+      </c>
+      <c r="M460" t="inlineStr">
+        <is>
+          <t>-46.3829610980093,168.01932280459516</t>
+        </is>
+      </c>
+      <c r="N460" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-10 22:20:22+00:00</t>
+        </is>
+      </c>
+      <c r="B461" t="inlineStr">
+        <is>
+          <t>-46.38425875277058,168.02901745683405</t>
+        </is>
+      </c>
+      <c r="C461" t="inlineStr">
+        <is>
+          <t>-46.38401412262998,168.02818610874382</t>
+        </is>
+      </c>
+      <c r="D461" t="inlineStr">
+        <is>
+          <t>-46.38386544287292,168.02731402467026</t>
+        </is>
+      </c>
+      <c r="E461" t="inlineStr">
+        <is>
+          <t>-46.38374270253992,168.0264309270197</t>
+        </is>
+      </c>
+      <c r="F461" t="inlineStr">
+        <is>
+          <t>-46.383623312997656,168.02554640591666</t>
+        </is>
+      </c>
+      <c r="G461" t="inlineStr">
+        <is>
+          <t>-46.383483931492925,168.02467037267112</t>
+        </is>
+      </c>
+      <c r="H461" t="inlineStr">
+        <is>
+          <t>-46.38333644753826,168.02379777946956</t>
+        </is>
+      </c>
+      <c r="I461" t="inlineStr">
+        <is>
+          <t>-46.3831886676583,168.02292531172588</t>
+        </is>
+      </c>
+      <c r="J461" t="inlineStr">
+        <is>
+          <t>-46.38305695006482,168.02202963921525</t>
+        </is>
+      </c>
+      <c r="K461" t="inlineStr">
+        <is>
+          <t>-46.38297259517347,168.02112203684518</t>
+        </is>
+      </c>
+      <c r="L461" t="inlineStr">
+        <is>
+          <t>-46.382883869437066,168.02022734813184</t>
+        </is>
+      </c>
+      <c r="M461" t="inlineStr">
+        <is>
+          <t>-46.38292652873403,168.01932541770424</t>
+        </is>
+      </c>
+      <c r="N461" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-18 22:20:37+00:00</t>
+        </is>
+      </c>
+      <c r="B462" t="inlineStr">
+        <is>
+          <t>-46.384195056255706,168.02904449925694</t>
+        </is>
+      </c>
+      <c r="C462" t="inlineStr">
+        <is>
+          <t>-46.38397718682249,168.02820179021307</t>
+        </is>
+      </c>
+      <c r="D462" t="inlineStr">
+        <is>
+          <t>-46.38383366661468,168.02732751593587</t>
+        </is>
+      </c>
+      <c r="E462" t="inlineStr">
+        <is>
+          <t>-46.38369715253032,168.02645026670902</t>
+        </is>
+      </c>
+      <c r="F462" t="inlineStr">
+        <is>
+          <t>-46.38358185469845,168.02556400880005</t>
+        </is>
+      </c>
+      <c r="G462" t="inlineStr">
+        <is>
+          <t>-46.38344526017392,168.02468679263689</t>
+        </is>
+      </c>
+      <c r="H462" t="inlineStr">
+        <is>
+          <t>-46.383291024667,168.0238170666409</t>
+        </is>
+      </c>
+      <c r="I462" t="inlineStr">
+        <is>
+          <t>-46.38315856231609,168.02293809518582</t>
+        </is>
+      </c>
+      <c r="J462" t="inlineStr">
+        <is>
+          <t>-46.383084348688236,168.02202243126993</t>
+        </is>
+      </c>
+      <c r="K462" t="inlineStr">
+        <is>
+          <t>-46.383024369309865,168.0211173048101</t>
+        </is>
+      </c>
+      <c r="L462" t="inlineStr">
+        <is>
+          <t>-46.38285017884939,168.0202298944285</t>
+        </is>
+      </c>
+      <c r="M462" t="inlineStr">
+        <is>
+          <t>-46.38293609808361,168.01932469435278</t>
+        </is>
+      </c>
+      <c r="N462" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-25 22:26:41+00:00</t>
+        </is>
+      </c>
+      <c r="B463" t="inlineStr">
+        <is>
+          <t>-46.38422134507557,168.0290333383194</t>
+        </is>
+      </c>
+      <c r="C463" t="inlineStr">
+        <is>
+          <t>-46.38404733400614,168.0281720084986</t>
+        </is>
+      </c>
+      <c r="D463" t="inlineStr">
+        <is>
+          <t>-46.383925059264364,168.0272887132533</t>
+        </is>
+      </c>
+      <c r="E463" t="inlineStr">
+        <is>
+          <t>-46.383749618191004,168.02642799075926</t>
+        </is>
+      </c>
+      <c r="F463" t="inlineStr">
+        <is>
+          <t>-46.38364348189855,168.02553784234124</t>
+        </is>
+      </c>
+      <c r="G463" t="inlineStr">
+        <is>
+          <t>-46.38346425106727,168.0246787290462</t>
+        </is>
+      </c>
+      <c r="H463" t="inlineStr">
+        <is>
+          <t>-46.383263874371664,168.02382859500938</t>
+        </is>
+      </c>
+      <c r="I463" t="inlineStr">
+        <is>
+          <t>-46.38312223889425,168.02295351897186</t>
+        </is>
+      </c>
+      <c r="J463" t="inlineStr">
+        <is>
+          <t>-46.38305367990649,168.02203049951783</t>
+        </is>
+      </c>
+      <c r="K463" t="inlineStr">
+        <is>
+          <t>-46.38292689878771,168.02112621337716</t>
+        </is>
+      </c>
+      <c r="L463" t="inlineStr">
+        <is>
+          <t>-46.38286540931379,168.02022874332775</t>
+        </is>
+      </c>
+      <c r="M463" t="inlineStr">
+        <is>
+          <t>-46.38290179794607,168.0193272871139</t>
+        </is>
+      </c>
+      <c r="N463" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-03 22:26:22+00:00</t>
+        </is>
+      </c>
+      <c r="B464" t="inlineStr">
+        <is>
+          <t>-46.38423410161709,168.029027922516</t>
+        </is>
+      </c>
+      <c r="C464" t="inlineStr">
+        <is>
+          <t>-46.38401762930865,168.02818461994679</t>
+        </is>
+      </c>
+      <c r="D464" t="inlineStr">
+        <is>
+          <t>-46.38382622533868,168.0273306752804</t>
+        </is>
+      </c>
+      <c r="E464" t="inlineStr">
+        <is>
+          <t>-46.383734828635006,168.02643427013635</t>
+        </is>
+      </c>
+      <c r="F464" t="inlineStr">
+        <is>
+          <t>-46.38360866037677,168.0255526273133</t>
+        </is>
+      </c>
+      <c r="G464" t="inlineStr">
+        <is>
+          <t>-46.38349875645533,168.0246640779376</t>
+        </is>
+      </c>
+      <c r="H464" t="inlineStr">
+        <is>
+          <t>-46.38326137482058,168.0238296563506</t>
+        </is>
+      </c>
+      <c r="I464" t="inlineStr">
+        <is>
+          <t>-46.38311376753306,168.02295711610927</t>
+        </is>
+      </c>
+      <c r="J464" t="inlineStr">
+        <is>
+          <t>-46.38304537193662,168.0220326851509</t>
+        </is>
+      </c>
+      <c r="K464" t="inlineStr">
+        <is>
+          <t>-46.3829675461098,168.0211224983171</t>
+        </is>
+      </c>
+      <c r="L464" t="inlineStr">
+        <is>
+          <t>-46.38288167492524,168.02022751399073</t>
+        </is>
+      </c>
+      <c r="M464" t="inlineStr">
+        <is>
+          <t>-46.38290221660512,168.01932725546735</t>
+        </is>
+      </c>
+      <c r="N464" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-04 22:20:29+00:00</t>
+        </is>
+      </c>
+      <c r="B465" t="inlineStr">
+        <is>
+          <t>-46.384226430453644,168.02903117931703</t>
+        </is>
+      </c>
+      <c r="C465" t="inlineStr">
+        <is>
+          <t>-46.384018037589485,168.0281844466069</t>
+        </is>
+      </c>
+      <c r="D465" t="inlineStr">
+        <is>
+          <t>-46.38384567608687,168.02732241706897</t>
+        </is>
+      </c>
+      <c r="E465" t="inlineStr">
+        <is>
+          <t>-46.383677936752356,168.02645842536083</t>
+        </is>
+      </c>
+      <c r="F465" t="inlineStr">
+        <is>
+          <t>-46.38357974299702,168.02556490541184</t>
+        </is>
+      </c>
+      <c r="G465" t="inlineStr">
+        <is>
+          <t>-46.38344390983805,168.02468736599334</t>
+        </is>
+      </c>
+      <c r="H465" t="inlineStr">
+        <is>
+          <t>-46.38327374328874,168.0238244045404</t>
+        </is>
+      </c>
+      <c r="I465" t="inlineStr">
+        <is>
+          <t>-46.383176293070036,168.02293056627877</t>
+        </is>
+      </c>
+      <c r="J465" t="inlineStr">
+        <is>
+          <t>-46.383071400629206,168.02202583760644</t>
+        </is>
+      </c>
+      <c r="K465" t="inlineStr">
+        <is>
+          <t>-46.38303252331159,168.02111655955224</t>
+        </is>
+      </c>
+      <c r="L465" t="inlineStr">
+        <is>
+          <t>-46.382859612490016,168.02022918144507</t>
+        </is>
+      </c>
+      <c r="M465" t="inlineStr">
+        <is>
+          <t>-46.38291103834933,168.01932658862862</t>
+        </is>
+      </c>
+      <c r="N465" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0535/nzd0535.xlsx
+++ b/data/nzd0535/nzd0535.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N465"/>
+  <dimension ref="A1:N467"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21852,6 +21852,102 @@
         </is>
       </c>
     </row>
+    <row r="466">
+      <c r="A466" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-11 22:26:34+00:00</t>
+        </is>
+      </c>
+      <c r="B466" t="n">
+        <v>323.91</v>
+      </c>
+      <c r="C466" t="n">
+        <v>314.018947368421</v>
+      </c>
+      <c r="D466" t="n">
+        <v>314.5166666666667</v>
+      </c>
+      <c r="E466" t="n">
+        <v>312.1052941176471</v>
+      </c>
+      <c r="F466" t="n">
+        <v>317.195</v>
+      </c>
+      <c r="G466" t="n">
+        <v>315.0066666666667</v>
+      </c>
+      <c r="H466" t="n">
+        <v>315.295</v>
+      </c>
+      <c r="I466" t="n">
+        <v>315.0514285714286</v>
+      </c>
+      <c r="J466" t="n">
+        <v>315.865</v>
+      </c>
+      <c r="K466" t="n">
+        <v>315.7389473684211</v>
+      </c>
+      <c r="L466" t="n">
+        <v>304.9038461538461</v>
+      </c>
+      <c r="M466" t="n">
+        <v>301.6533333333333</v>
+      </c>
+      <c r="N466" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-19 22:26:24+00:00</t>
+        </is>
+      </c>
+      <c r="B467" t="n">
+        <v>318.51</v>
+      </c>
+      <c r="C467" t="n">
+        <v>310.2963157894737</v>
+      </c>
+      <c r="D467" t="n">
+        <v>304.7066666666666</v>
+      </c>
+      <c r="E467" t="n">
+        <v>311.4423529411765</v>
+      </c>
+      <c r="F467" t="n">
+        <v>304.24</v>
+      </c>
+      <c r="G467" t="n">
+        <v>310.9566666666666</v>
+      </c>
+      <c r="H467" t="n">
+        <v>309.15</v>
+      </c>
+      <c r="I467" t="n">
+        <v>310.9714285714285</v>
+      </c>
+      <c r="J467" t="n">
+        <v>316.41</v>
+      </c>
+      <c r="K467" t="n">
+        <v>326.3863157894737</v>
+      </c>
+      <c r="L467" t="n">
+        <v>302.46</v>
+      </c>
+      <c r="M467" t="n">
+        <v>301.8933333333333</v>
+      </c>
+      <c r="N467" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -21863,7 +21959,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B521"/>
+  <dimension ref="A1:B523"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27081,6 +27177,26 @@
       </c>
       <c r="B521" t="n">
         <v>-0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" t="inlineStr">
+        <is>
+          <t>2025-05-11 22:30:00+00:00</t>
+        </is>
+      </c>
+      <c r="B522" t="n">
+        <v>0.53</v>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" t="inlineStr">
+        <is>
+          <t>2025-05-19 22:30:00+00:00</t>
+        </is>
+      </c>
+      <c r="B523" t="n">
+        <v>-0.52</v>
       </c>
     </row>
   </sheetData>
@@ -27254,28 +27370,28 @@
         <v>0.1208</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1730993005072525</v>
+        <v>0.1664594945395499</v>
       </c>
       <c r="J2" t="n">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="K2" t="n">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01706656466788681</v>
+        <v>0.01590988323689091</v>
       </c>
       <c r="M2" t="n">
-        <v>7.46667314972114</v>
+        <v>7.462138822449002</v>
       </c>
       <c r="N2" t="n">
-        <v>94.59912399409839</v>
+        <v>94.42267720507525</v>
       </c>
       <c r="O2" t="n">
-        <v>9.726208099464991</v>
+        <v>9.717133178313203</v>
       </c>
       <c r="P2" t="n">
-        <v>323.9167318809547</v>
+        <v>323.9835570273675</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -27332,28 +27448,28 @@
         <v>0.114</v>
       </c>
       <c r="I3" t="n">
-        <v>0.3292081830357555</v>
+        <v>0.3226251906274994</v>
       </c>
       <c r="J3" t="n">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="K3" t="n">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="L3" t="n">
-        <v>0.06697543509264658</v>
+        <v>0.06488999245108373</v>
       </c>
       <c r="M3" t="n">
-        <v>6.788224639877517</v>
+        <v>6.789366156841426</v>
       </c>
       <c r="N3" t="n">
-        <v>82.26028539899869</v>
+        <v>82.12748317526881</v>
       </c>
       <c r="O3" t="n">
-        <v>9.06974560828465</v>
+        <v>9.062421485191958</v>
       </c>
       <c r="P3" t="n">
-        <v>310.8442120446272</v>
+        <v>310.9108262971826</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -27410,28 +27526,28 @@
         <v>0.08500000000000001</v>
       </c>
       <c r="I4" t="n">
-        <v>0.2467503281651134</v>
+        <v>0.2383084340350912</v>
       </c>
       <c r="J4" t="n">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="K4" t="n">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="L4" t="n">
-        <v>0.04335290658777757</v>
+        <v>0.04065819031536222</v>
       </c>
       <c r="M4" t="n">
-        <v>6.829744684719858</v>
+        <v>6.84263356813006</v>
       </c>
       <c r="N4" t="n">
-        <v>73.1327320379455</v>
+        <v>73.29864663899478</v>
       </c>
       <c r="O4" t="n">
-        <v>8.551767772685686</v>
+        <v>8.561462879613202</v>
       </c>
       <c r="P4" t="n">
-        <v>312.4588144661428</v>
+        <v>312.5443495397175</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -27488,28 +27604,28 @@
         <v>0.1024</v>
       </c>
       <c r="I5" t="n">
-        <v>0.2625820852753613</v>
+        <v>0.2565288110164712</v>
       </c>
       <c r="J5" t="n">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="K5" t="n">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="L5" t="n">
-        <v>0.04508543875327542</v>
+        <v>0.04341327695765995</v>
       </c>
       <c r="M5" t="n">
-        <v>6.708717875563758</v>
+        <v>6.709963529872286</v>
       </c>
       <c r="N5" t="n">
-        <v>80.34545447964763</v>
+        <v>80.17830613420053</v>
       </c>
       <c r="O5" t="n">
-        <v>8.963562599750594</v>
+        <v>8.954233978079897</v>
       </c>
       <c r="P5" t="n">
-        <v>311.7071732717982</v>
+        <v>311.7676001704304</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -27566,28 +27682,28 @@
         <v>0.0951</v>
       </c>
       <c r="I6" t="n">
-        <v>0.2132580776397517</v>
+        <v>0.2050192469759523</v>
       </c>
       <c r="J6" t="n">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="K6" t="n">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="L6" t="n">
-        <v>0.03461635075644243</v>
+        <v>0.03211814564106685</v>
       </c>
       <c r="M6" t="n">
-        <v>6.274186779317279</v>
+        <v>6.290722923921863</v>
       </c>
       <c r="N6" t="n">
-        <v>69.40614900479264</v>
+        <v>69.66265097417218</v>
       </c>
       <c r="O6" t="n">
-        <v>8.331035290094061</v>
+        <v>8.346415456600047</v>
       </c>
       <c r="P6" t="n">
-        <v>314.3606372637198</v>
+        <v>314.4432572100393</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -27644,28 +27760,28 @@
         <v>0.08890000000000001</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1602620847994898</v>
+        <v>0.1529606716822827</v>
       </c>
       <c r="J7" t="n">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="K7" t="n">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="L7" t="n">
-        <v>0.01822270112630497</v>
+        <v>0.0167164924798342</v>
       </c>
       <c r="M7" t="n">
-        <v>6.610707313449927</v>
+        <v>6.622636866085936</v>
       </c>
       <c r="N7" t="n">
-        <v>75.82912871425988</v>
+        <v>75.80003589361186</v>
       </c>
       <c r="O7" t="n">
-        <v>8.707992232096895</v>
+        <v>8.706321605225243</v>
       </c>
       <c r="P7" t="n">
-        <v>316.9874602946305</v>
+        <v>317.0603287146189</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -27722,28 +27838,28 @@
         <v>0.0887</v>
       </c>
       <c r="I8" t="n">
-        <v>0.02381170432106725</v>
+        <v>0.01758890362223006</v>
       </c>
       <c r="J8" t="n">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="K8" t="n">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0003818723120798673</v>
+        <v>0.0002097690749074399</v>
       </c>
       <c r="M8" t="n">
-        <v>6.841716881597057</v>
+        <v>6.842612532517108</v>
       </c>
       <c r="N8" t="n">
-        <v>81.67800773642779</v>
+        <v>81.55732852783075</v>
       </c>
       <c r="O8" t="n">
-        <v>9.037588601857676</v>
+        <v>9.030909617963783</v>
       </c>
       <c r="P8" t="n">
-        <v>318.4739371706776</v>
+        <v>318.5359546400957</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -27800,28 +27916,28 @@
         <v>0.08260000000000001</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.07697671337296305</v>
+        <v>-0.08298267168121204</v>
       </c>
       <c r="J9" t="n">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="K9" t="n">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="L9" t="n">
-        <v>0.003569821055849243</v>
+        <v>0.004176073648250345</v>
       </c>
       <c r="M9" t="n">
-        <v>7.233654823793204</v>
+        <v>7.234154047835328</v>
       </c>
       <c r="N9" t="n">
-        <v>90.84369682374732</v>
+        <v>90.65253537379121</v>
       </c>
       <c r="O9" t="n">
-        <v>9.531195980764814</v>
+        <v>9.521162501175537</v>
       </c>
       <c r="P9" t="n">
-        <v>321.742627975859</v>
+        <v>321.8023239136876</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -27878,28 +27994,28 @@
         <v>0.09180000000000001</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.04530834838845919</v>
+        <v>-0.05127056829862125</v>
       </c>
       <c r="J10" t="n">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="K10" t="n">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="L10" t="n">
-        <v>0.001170516768276841</v>
+        <v>0.001509884881231494</v>
       </c>
       <c r="M10" t="n">
-        <v>7.512816447449901</v>
+        <v>7.508330807888543</v>
       </c>
       <c r="N10" t="n">
-        <v>95.57731406088298</v>
+        <v>95.34089582120988</v>
       </c>
       <c r="O10" t="n">
-        <v>9.776365074038663</v>
+        <v>9.76426627152342</v>
       </c>
       <c r="P10" t="n">
-        <v>323.9590892364244</v>
+        <v>324.0184569315326</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -27956,28 +28072,28 @@
         <v>0.1199</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.1315939821103274</v>
+        <v>-0.1308039617574838</v>
       </c>
       <c r="J11" t="n">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="K11" t="n">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="L11" t="n">
-        <v>0.01209422985518105</v>
+        <v>0.01204780522152205</v>
       </c>
       <c r="M11" t="n">
-        <v>6.978514388613221</v>
+        <v>6.970825250703236</v>
       </c>
       <c r="N11" t="n">
-        <v>77.71418347808299</v>
+        <v>77.48910275610478</v>
       </c>
       <c r="O11" t="n">
-        <v>8.815564841692391</v>
+        <v>8.80278948720829</v>
       </c>
       <c r="P11" t="n">
-        <v>323.5954831456214</v>
+        <v>323.5876271427724</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -28034,28 +28150,28 @@
         <v>0.0746</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.209905844386756</v>
+        <v>-0.2162571648547041</v>
       </c>
       <c r="J12" t="n">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="K12" t="n">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="L12" t="n">
-        <v>0.02624208977491194</v>
+        <v>0.02800906973744755</v>
       </c>
       <c r="M12" t="n">
-        <v>7.03331677608628</v>
+        <v>7.033862243297051</v>
       </c>
       <c r="N12" t="n">
-        <v>89.46122245891992</v>
+        <v>89.27712841989711</v>
       </c>
       <c r="O12" t="n">
-        <v>9.45839428544401</v>
+        <v>9.448657492993229</v>
       </c>
       <c r="P12" t="n">
-        <v>316.0914995717666</v>
+        <v>316.1545468164296</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -28112,28 +28228,28 @@
         <v>0.0684</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.229720799760264</v>
+        <v>-0.2407891516248818</v>
       </c>
       <c r="J13" t="n">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="K13" t="n">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="L13" t="n">
-        <v>0.03129557106705272</v>
+        <v>0.03438845155635351</v>
       </c>
       <c r="M13" t="n">
-        <v>7.16766599948676</v>
+        <v>7.193813411631843</v>
       </c>
       <c r="N13" t="n">
-        <v>89.44093795257342</v>
+        <v>89.64969301434481</v>
       </c>
       <c r="O13" t="n">
-        <v>9.457321922858153</v>
+        <v>9.468352180519311</v>
       </c>
       <c r="P13" t="n">
-        <v>319.3173905108854</v>
+        <v>319.4267815320059</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -28171,7 +28287,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N465"/>
+  <dimension ref="A1:N467"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -59803,6 +59919,150 @@
         </is>
       </c>
     </row>
+    <row r="466">
+      <c r="A466" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-11 22:26:34+00:00</t>
+        </is>
+      </c>
+      <c r="B466" t="inlineStr">
+        <is>
+          <t>-46.38422694761073,168.02903095975745</t>
+        </is>
+      </c>
+      <c r="C466" t="inlineStr">
+        <is>
+          <t>-46.38399291924493,168.02819511085758</t>
+        </is>
+      </c>
+      <c r="D466" t="inlineStr">
+        <is>
+          <t>-46.38384843424313,168.027321246037</t>
+        </is>
+      </c>
+      <c r="E466" t="inlineStr">
+        <is>
+          <t>-46.3836788747257,168.02645802711544</t>
+        </is>
+      </c>
+      <c r="F466" t="inlineStr">
+        <is>
+          <t>-46.38357396814004,168.02556735737022</t>
+        </is>
+      </c>
+      <c r="G466" t="inlineStr">
+        <is>
+          <t>-46.38340633027648,168.0247033223688</t>
+        </is>
+      </c>
+      <c r="H466" t="inlineStr">
+        <is>
+          <t>-46.383260038853614,168.02383022361917</t>
+        </is>
+      </c>
+      <c r="I466" t="inlineStr">
+        <is>
+          <t>-46.383109162461665,168.02295907152939</t>
+        </is>
+      </c>
+      <c r="J466" t="inlineStr">
+        <is>
+          <t>-46.38296454599172,168.02205394853058</t>
+        </is>
+      </c>
+      <c r="K466" t="inlineStr">
+        <is>
+          <t>-46.38294363619798,168.02112468362216</t>
+        </is>
+      </c>
+      <c r="L466" t="inlineStr">
+        <is>
+          <t>-46.382840869426396,168.02023059802335</t>
+        </is>
+      </c>
+      <c r="M466" t="inlineStr">
+        <is>
+          <t>-46.382806074543986,168.01933452285752</t>
+        </is>
+      </c>
+      <c r="N466" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-19 22:26:24+00:00</t>
+        </is>
+      </c>
+      <c r="B467" t="inlineStr">
+        <is>
+          <t>-46.38418040347019,168.0290507201023</t>
+        </is>
+      </c>
+      <c r="C467" t="inlineStr">
+        <is>
+          <t>-46.383960832905245,168.02820873342563</t>
+        </is>
+      </c>
+      <c r="D467" t="inlineStr">
+        <is>
+          <t>-46.38376387950768,168.02735714542752</t>
+        </is>
+      </c>
+      <c r="E467" t="inlineStr">
+        <is>
+          <t>-46.383673160693434,168.0264604531831</t>
+        </is>
+      </c>
+      <c r="F467" t="inlineStr">
+        <is>
+          <t>-46.38346230652445,168.02561476788705</t>
+        </is>
+      </c>
+      <c r="G467" t="inlineStr">
+        <is>
+          <t>-46.38337142265328,168.02471814420988</t>
+        </is>
+      </c>
+      <c r="H467" t="inlineStr">
+        <is>
+          <t>-46.383207074224494,168.02385271304777</t>
+        </is>
+      </c>
+      <c r="I467" t="inlineStr">
+        <is>
+          <t>-46.383073996460155,168.02297400381659</t>
+        </is>
+      </c>
+      <c r="J467" t="inlineStr">
+        <is>
+          <t>-46.38296936284702,168.02205268133287</t>
+        </is>
+      </c>
+      <c r="K467" t="inlineStr">
+        <is>
+          <t>-46.383039096531704,168.02111595877406</t>
+        </is>
+      </c>
+      <c r="L467" t="inlineStr">
+        <is>
+          <t>-46.38281894501055,168.0202322550425</t>
+        </is>
+      </c>
+      <c r="M467" t="inlineStr">
+        <is>
+          <t>-46.38280822764769,168.01933436010458</t>
+        </is>
+      </c>
+      <c r="N467" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0535/nzd0535.xlsx
+++ b/data/nzd0535/nzd0535.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tides" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transects" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Tides" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Transects" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -28457,7 +28457,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>-46.384003925273234,168.02725522890077</t>
+          <t>-46.38400392527323,168.02725522890077</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -48274,7 +48274,7 @@
       </c>
       <c r="I295" t="inlineStr">
         <is>
-          <t>-46.383192755581916,168.02292357589292</t>
+          <t>-46.38319275558192,168.02292357589292</t>
         </is>
       </c>
       <c r="J295" t="inlineStr">
@@ -54694,7 +54694,7 @@
       </c>
       <c r="I390" t="inlineStr">
         <is>
-          <t>-46.38302295896342,168.0229956754636</t>
+          <t>-46.38302295896343,168.0229956754636</t>
         </is>
       </c>
       <c r="J390" t="inlineStr">
@@ -59159,7 +59159,7 @@
       </c>
       <c r="B455" t="inlineStr">
         <is>
-          <t>-46.38438045704631,168.02896578695265</t>
+          <t>-46.38438045704632,168.02896578695265</t>
         </is>
       </c>
       <c r="C455" t="inlineStr">

--- a/data/nzd0535/nzd0535.xlsx
+++ b/data/nzd0535/nzd0535.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N467"/>
+  <dimension ref="A1:N469"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21948,6 +21948,84 @@
         </is>
       </c>
     </row>
+    <row r="468">
+      <c r="A468" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-13 22:20:24+00:00</t>
+        </is>
+      </c>
+      <c r="B468" t="inlineStr"/>
+      <c r="C468" t="inlineStr"/>
+      <c r="D468" t="inlineStr"/>
+      <c r="E468" t="inlineStr"/>
+      <c r="F468" t="n">
+        <v>325.095</v>
+      </c>
+      <c r="G468" t="n">
+        <v>316.0866666666666</v>
+      </c>
+      <c r="H468" t="n">
+        <v>298.635</v>
+      </c>
+      <c r="I468" t="inlineStr"/>
+      <c r="J468" t="inlineStr"/>
+      <c r="K468" t="inlineStr"/>
+      <c r="L468" t="inlineStr"/>
+      <c r="M468" t="inlineStr"/>
+      <c r="N468" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-20 22:26:40+00:00</t>
+        </is>
+      </c>
+      <c r="B469" t="n">
+        <v>328.83</v>
+      </c>
+      <c r="C469" t="n">
+        <v>315.898947368421</v>
+      </c>
+      <c r="D469" t="n">
+        <v>330.3766666666667</v>
+      </c>
+      <c r="E469" t="n">
+        <v>326.7352941176471</v>
+      </c>
+      <c r="F469" t="n">
+        <v>328.495</v>
+      </c>
+      <c r="G469" t="n">
+        <v>327.2666666666667</v>
+      </c>
+      <c r="H469" t="n">
+        <v>321.035</v>
+      </c>
+      <c r="I469" t="n">
+        <v>332.1414285714285</v>
+      </c>
+      <c r="J469" t="n">
+        <v>324.825</v>
+      </c>
+      <c r="K469" t="n">
+        <v>326.608947368421</v>
+      </c>
+      <c r="L469" t="n">
+        <v>313.4738461538461</v>
+      </c>
+      <c r="M469" t="n">
+        <v>317.8933333333333</v>
+      </c>
+      <c r="N469" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -21959,7 +22037,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B523"/>
+  <dimension ref="A1:B525"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27197,6 +27275,26 @@
       </c>
       <c r="B523" t="n">
         <v>-0.52</v>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" t="inlineStr">
+        <is>
+          <t>2025-06-13 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B524" t="n">
+        <v>-0.49</v>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" t="inlineStr">
+        <is>
+          <t>2025-06-20 22:30:00+00:00</t>
+        </is>
+      </c>
+      <c r="B525" t="n">
+        <v>0.53</v>
       </c>
     </row>
   </sheetData>
@@ -27370,28 +27468,28 @@
         <v>0.1208</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1664594945395499</v>
+        <v>0.1667050562020696</v>
       </c>
       <c r="J2" t="n">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="K2" t="n">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01590988323689091</v>
+        <v>0.01603378501646857</v>
       </c>
       <c r="M2" t="n">
-        <v>7.462138822449002</v>
+        <v>7.445517839653705</v>
       </c>
       <c r="N2" t="n">
-        <v>94.42267720507525</v>
+        <v>94.19582488711362</v>
       </c>
       <c r="O2" t="n">
-        <v>9.717133178313203</v>
+        <v>9.705453358144256</v>
       </c>
       <c r="P2" t="n">
-        <v>323.9835570273675</v>
+        <v>323.9810742359435</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -27448,28 +27546,28 @@
         <v>0.114</v>
       </c>
       <c r="I3" t="n">
-        <v>0.3226251906274994</v>
+        <v>0.3210762679491418</v>
       </c>
       <c r="J3" t="n">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="K3" t="n">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="L3" t="n">
-        <v>0.06488999245108373</v>
+        <v>0.06458226443989656</v>
       </c>
       <c r="M3" t="n">
-        <v>6.789366156841426</v>
+        <v>6.781019693811416</v>
       </c>
       <c r="N3" t="n">
-        <v>82.12748317526881</v>
+        <v>81.95890768209763</v>
       </c>
       <c r="O3" t="n">
-        <v>9.062421485191958</v>
+        <v>9.053115910121644</v>
       </c>
       <c r="P3" t="n">
-        <v>310.9108262971826</v>
+        <v>310.9265730166263</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -27526,28 +27624,28 @@
         <v>0.08500000000000001</v>
       </c>
       <c r="I4" t="n">
-        <v>0.2383084340350912</v>
+        <v>0.2436508317689095</v>
       </c>
       <c r="J4" t="n">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="K4" t="n">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="L4" t="n">
-        <v>0.04065819031536222</v>
+        <v>0.04244305094030343</v>
       </c>
       <c r="M4" t="n">
-        <v>6.84263356813006</v>
+        <v>6.852956127564402</v>
       </c>
       <c r="N4" t="n">
-        <v>73.29864663899478</v>
+        <v>73.44510283871539</v>
       </c>
       <c r="O4" t="n">
-        <v>8.561462879613202</v>
+        <v>8.570011834222598</v>
       </c>
       <c r="P4" t="n">
-        <v>312.5443495397175</v>
+        <v>312.4899751746289</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -27604,28 +27702,28 @@
         <v>0.1024</v>
       </c>
       <c r="I5" t="n">
-        <v>0.2565288110164712</v>
+        <v>0.2602835783336676</v>
       </c>
       <c r="J5" t="n">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="K5" t="n">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="L5" t="n">
-        <v>0.04341327695765995</v>
+        <v>0.04475896956315883</v>
       </c>
       <c r="M5" t="n">
-        <v>6.709963529872286</v>
+        <v>6.71281950501059</v>
       </c>
       <c r="N5" t="n">
-        <v>80.17830613420053</v>
+        <v>80.15144984538969</v>
       </c>
       <c r="O5" t="n">
-        <v>8.954233978079897</v>
+        <v>8.952734210585596</v>
       </c>
       <c r="P5" t="n">
-        <v>311.7676001704304</v>
+        <v>311.7299408631926</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -27682,28 +27780,28 @@
         <v>0.0951</v>
       </c>
       <c r="I6" t="n">
-        <v>0.2050192469759523</v>
+        <v>0.2113138254177218</v>
       </c>
       <c r="J6" t="n">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="K6" t="n">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="L6" t="n">
-        <v>0.03211814564106685</v>
+        <v>0.03425667797728726</v>
       </c>
       <c r="M6" t="n">
-        <v>6.290722923921863</v>
+        <v>6.291330034782879</v>
       </c>
       <c r="N6" t="n">
-        <v>69.66265097417218</v>
+        <v>69.57952615226293</v>
       </c>
       <c r="O6" t="n">
-        <v>8.346415456600047</v>
+        <v>8.341434298264474</v>
       </c>
       <c r="P6" t="n">
-        <v>314.4432572100393</v>
+        <v>314.3798811073715</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -27760,28 +27858,28 @@
         <v>0.08890000000000001</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1529606716822827</v>
+        <v>0.1535454569187279</v>
       </c>
       <c r="J7" t="n">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="K7" t="n">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0167164924798342</v>
+        <v>0.01697111244035532</v>
       </c>
       <c r="M7" t="n">
-        <v>6.622636866085936</v>
+        <v>6.617489577382793</v>
       </c>
       <c r="N7" t="n">
-        <v>75.80003589361186</v>
+        <v>75.59751325281852</v>
       </c>
       <c r="O7" t="n">
-        <v>8.706321605225243</v>
+        <v>8.694683044988961</v>
       </c>
       <c r="P7" t="n">
-        <v>317.0603287146189</v>
+        <v>317.0544456685214</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -27838,28 +27936,28 @@
         <v>0.0887</v>
       </c>
       <c r="I8" t="n">
-        <v>0.01758890362223006</v>
+        <v>0.009354114254904991</v>
       </c>
       <c r="J8" t="n">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="K8" t="n">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0002097690749074399</v>
+        <v>5.921248754492403e-05</v>
       </c>
       <c r="M8" t="n">
-        <v>6.842612532517108</v>
+        <v>6.864094257945356</v>
       </c>
       <c r="N8" t="n">
-        <v>81.55732852783075</v>
+        <v>82.14720083421888</v>
       </c>
       <c r="O8" t="n">
-        <v>9.030909617963783</v>
+        <v>9.063509300167286</v>
       </c>
       <c r="P8" t="n">
-        <v>318.5359546400957</v>
+        <v>318.6183090859457</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -27916,28 +28014,28 @@
         <v>0.08260000000000001</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.08298267168121204</v>
+        <v>-0.0774104221008526</v>
       </c>
       <c r="J9" t="n">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="K9" t="n">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="L9" t="n">
-        <v>0.004176073648250345</v>
+        <v>0.003639527622615768</v>
       </c>
       <c r="M9" t="n">
-        <v>7.234154047835328</v>
+        <v>7.243394609820177</v>
       </c>
       <c r="N9" t="n">
-        <v>90.65253537379121</v>
+        <v>90.79891169066302</v>
       </c>
       <c r="O9" t="n">
-        <v>9.521162501175537</v>
+        <v>9.52884629378935</v>
       </c>
       <c r="P9" t="n">
-        <v>321.8023239136876</v>
+        <v>321.7466883613349</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -27994,28 +28092,28 @@
         <v>0.09180000000000001</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.05127056829862125</v>
+        <v>-0.05031132697536658</v>
       </c>
       <c r="J10" t="n">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="K10" t="n">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="L10" t="n">
-        <v>0.001509884881231494</v>
+        <v>0.001460974528804004</v>
       </c>
       <c r="M10" t="n">
-        <v>7.508330807888543</v>
+        <v>7.496175069244464</v>
       </c>
       <c r="N10" t="n">
-        <v>95.34089582120988</v>
+        <v>95.13450709509063</v>
       </c>
       <c r="O10" t="n">
-        <v>9.76426627152342</v>
+        <v>9.753691972534842</v>
       </c>
       <c r="P10" t="n">
-        <v>324.0184569315326</v>
+        <v>324.0088611423232</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -28072,28 +28170,28 @@
         <v>0.1199</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.1308039617574838</v>
+        <v>-0.1278930689968129</v>
       </c>
       <c r="J11" t="n">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="K11" t="n">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="L11" t="n">
-        <v>0.01204780522152205</v>
+        <v>0.01156639647154734</v>
       </c>
       <c r="M11" t="n">
-        <v>6.970825250703236</v>
+        <v>6.969303746878105</v>
       </c>
       <c r="N11" t="n">
-        <v>77.48910275610478</v>
+        <v>77.40443873843469</v>
       </c>
       <c r="O11" t="n">
-        <v>8.80278948720829</v>
+        <v>8.797979241759705</v>
       </c>
       <c r="P11" t="n">
-        <v>323.5876271427724</v>
+        <v>323.558638729632</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -28150,28 +28248,28 @@
         <v>0.0746</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.2162571648547041</v>
+        <v>-0.2149248089886807</v>
       </c>
       <c r="J12" t="n">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="K12" t="n">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="L12" t="n">
-        <v>0.02800906973744755</v>
+        <v>0.02780301739890478</v>
       </c>
       <c r="M12" t="n">
-        <v>7.033862243297051</v>
+        <v>7.024143999345839</v>
       </c>
       <c r="N12" t="n">
-        <v>89.27712841989711</v>
+        <v>89.09101622992506</v>
       </c>
       <c r="O12" t="n">
-        <v>9.448657492993229</v>
+        <v>9.438803749942313</v>
       </c>
       <c r="P12" t="n">
-        <v>316.1545468164296</v>
+        <v>316.1412610930009</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -28228,28 +28326,28 @@
         <v>0.0684</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.2407891516248818</v>
+        <v>-0.2385408617284501</v>
       </c>
       <c r="J13" t="n">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="K13" t="n">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="L13" t="n">
-        <v>0.03438845155635351</v>
+        <v>0.03392353054394615</v>
       </c>
       <c r="M13" t="n">
-        <v>7.193813411631843</v>
+        <v>7.186604652946145</v>
       </c>
       <c r="N13" t="n">
-        <v>89.64969301434481</v>
+        <v>89.48711462421383</v>
       </c>
       <c r="O13" t="n">
-        <v>9.468352180519311</v>
+        <v>9.459762926427587</v>
       </c>
       <c r="P13" t="n">
-        <v>319.4267815320059</v>
+        <v>319.4044591437853</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -28287,7 +28385,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N467"/>
+  <dimension ref="A1:N469"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -60063,6 +60161,114 @@
         </is>
       </c>
     </row>
+    <row r="468">
+      <c r="A468" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-13 22:20:24+00:00</t>
+        </is>
+      </c>
+      <c r="B468" t="inlineStr"/>
+      <c r="C468" t="inlineStr"/>
+      <c r="D468" t="inlineStr"/>
+      <c r="E468" t="inlineStr"/>
+      <c r="F468" t="inlineStr">
+        <is>
+          <t>-46.3836420597325,168.02553844618333</t>
+        </is>
+      </c>
+      <c r="G468" t="inlineStr">
+        <is>
+          <t>-46.383415638975514,168.02469936987436</t>
+        </is>
+      </c>
+      <c r="H468" t="inlineStr">
+        <is>
+          <t>-46.38311644392873,168.02389119566206</t>
+        </is>
+      </c>
+      <c r="I468" t="inlineStr"/>
+      <c r="J468" t="inlineStr"/>
+      <c r="K468" t="inlineStr"/>
+      <c r="L468" t="inlineStr"/>
+      <c r="M468" t="inlineStr"/>
+      <c r="N468" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-20 22:26:40+00:00</t>
+        </is>
+      </c>
+      <c r="B469" t="inlineStr">
+        <is>
+          <t>-46.38426935448999,168.02901295585576</t>
+        </is>
+      </c>
+      <c r="C469" t="inlineStr">
+        <is>
+          <t>-46.384009123457986,168.0281882311941</t>
+        </is>
+      </c>
+      <c r="D469" t="inlineStr">
+        <is>
+          <t>-46.38398513534018,168.02726320660307</t>
+        </is>
+      </c>
+      <c r="E469" t="inlineStr">
+        <is>
+          <t>-46.383804973816446,168.02640448773036</t>
+        </is>
+      </c>
+      <c r="F469" t="inlineStr">
+        <is>
+          <t>-46.38367136497153,168.02552600336986</t>
+        </is>
+      </c>
+      <c r="G469" t="inlineStr">
+        <is>
+          <t>-46.383512001237186,168.02465845415117</t>
+        </is>
+      </c>
+      <c r="H469" t="inlineStr">
+        <is>
+          <t>-46.383309512724296,168.0238092163638</t>
+        </is>
+      </c>
+      <c r="I469" t="inlineStr">
+        <is>
+          <t>-46.38325646315753,168.0228965240498</t>
+        </is>
+      </c>
+      <c r="J469" t="inlineStr">
+        <is>
+          <t>-46.383043736857424,168.022033115302</t>
+        </is>
+      </c>
+      <c r="K469" t="inlineStr">
+        <is>
+          <t>-46.38304109256337,168.02111577634105</t>
+        </is>
+      </c>
+      <c r="L469" t="inlineStr">
+        <is>
+          <t>-46.38291775325192,168.0202247872264</t>
+        </is>
+      </c>
+      <c r="M469" t="inlineStr">
+        <is>
+          <t>-46.38295176789352,168.01932350986385</t>
+        </is>
+      </c>
+      <c r="N469" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0535/nzd0535.xlsx
+++ b/data/nzd0535/nzd0535.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N469"/>
+  <dimension ref="A1:N471"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22026,6 +22026,102 @@
         </is>
       </c>
     </row>
+    <row r="470">
+      <c r="A470" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-07 22:20:30+00:00</t>
+        </is>
+      </c>
+      <c r="B470" t="n">
+        <v>327.58</v>
+      </c>
+      <c r="C470" t="n">
+        <v>320.0047368421053</v>
+      </c>
+      <c r="D470" t="n">
+        <v>321.83</v>
+      </c>
+      <c r="E470" t="n">
+        <v>321.7835294117647</v>
+      </c>
+      <c r="F470" t="n">
+        <v>325.395</v>
+      </c>
+      <c r="G470" t="n">
+        <v>327.43</v>
+      </c>
+      <c r="H470" t="n">
+        <v>326.525</v>
+      </c>
+      <c r="I470" t="n">
+        <v>326.4242857142857</v>
+      </c>
+      <c r="J470" t="n">
+        <v>328.545</v>
+      </c>
+      <c r="K470" t="n">
+        <v>326.4347368421053</v>
+      </c>
+      <c r="L470" t="n">
+        <v>312.8584615384615</v>
+      </c>
+      <c r="M470" t="n">
+        <v>300.45</v>
+      </c>
+      <c r="N470" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-23 22:20:39+00:00</t>
+        </is>
+      </c>
+      <c r="B471" t="n">
+        <v>322.77</v>
+      </c>
+      <c r="C471" t="n">
+        <v>316.5147368421053</v>
+      </c>
+      <c r="D471" t="n">
+        <v>324.67</v>
+      </c>
+      <c r="E471" t="n">
+        <v>321.6935294117647</v>
+      </c>
+      <c r="F471" t="n">
+        <v>328.105</v>
+      </c>
+      <c r="G471" t="n">
+        <v>326.86</v>
+      </c>
+      <c r="H471" t="n">
+        <v>327.675</v>
+      </c>
+      <c r="I471" t="n">
+        <v>328.1142857142857</v>
+      </c>
+      <c r="J471" t="n">
+        <v>334.375</v>
+      </c>
+      <c r="K471" t="n">
+        <v>326.4847368421052</v>
+      </c>
+      <c r="L471" t="n">
+        <v>312.0984615384615</v>
+      </c>
+      <c r="M471" t="n">
+        <v>312.51</v>
+      </c>
+      <c r="N471" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -22037,7 +22133,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B525"/>
+  <dimension ref="A1:B527"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27295,6 +27391,26 @@
       </c>
       <c r="B525" t="n">
         <v>0.53</v>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" t="inlineStr">
+        <is>
+          <t>2025-07-07 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B526" t="n">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" t="inlineStr">
+        <is>
+          <t>2025-07-23 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B527" t="n">
+        <v>0.75</v>
       </c>
     </row>
   </sheetData>
@@ -27468,28 +27584,28 @@
         <v>0.1208</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1667050562020696</v>
+        <v>0.1638152043236953</v>
       </c>
       <c r="J2" t="n">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="K2" t="n">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01603378501646857</v>
+        <v>0.01563023901253036</v>
       </c>
       <c r="M2" t="n">
-        <v>7.445517839653705</v>
+        <v>7.423684459876136</v>
       </c>
       <c r="N2" t="n">
-        <v>94.19582488711362</v>
+        <v>93.81847494858646</v>
       </c>
       <c r="O2" t="n">
-        <v>9.705453358144256</v>
+        <v>9.685993751215538</v>
       </c>
       <c r="P2" t="n">
-        <v>323.9810742359435</v>
+        <v>324.0104126365373</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -27546,28 +27662,28 @@
         <v>0.114</v>
       </c>
       <c r="I3" t="n">
-        <v>0.3210762679491418</v>
+        <v>0.320150048252593</v>
       </c>
       <c r="J3" t="n">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="K3" t="n">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="L3" t="n">
-        <v>0.06458226443989656</v>
+        <v>0.06480695049124441</v>
       </c>
       <c r="M3" t="n">
-        <v>6.781019693811416</v>
+        <v>6.757052679224718</v>
       </c>
       <c r="N3" t="n">
-        <v>81.95890768209763</v>
+        <v>81.58983097220165</v>
       </c>
       <c r="O3" t="n">
-        <v>9.053115910121644</v>
+        <v>9.032708949822398</v>
       </c>
       <c r="P3" t="n">
-        <v>310.9265730166263</v>
+        <v>310.9360372955641</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -27624,28 +27740,28 @@
         <v>0.08500000000000001</v>
       </c>
       <c r="I4" t="n">
-        <v>0.2436508317689095</v>
+        <v>0.2476789177878948</v>
       </c>
       <c r="J4" t="n">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="K4" t="n">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="L4" t="n">
-        <v>0.04244305094030343</v>
+        <v>0.04414635537280287</v>
       </c>
       <c r="M4" t="n">
-        <v>6.852956127564402</v>
+        <v>6.840302309887535</v>
       </c>
       <c r="N4" t="n">
-        <v>73.44510283871539</v>
+        <v>73.19798990856135</v>
       </c>
       <c r="O4" t="n">
-        <v>8.570011834222598</v>
+        <v>8.555582382781511</v>
       </c>
       <c r="P4" t="n">
-        <v>312.4899751746289</v>
+        <v>312.4488291210135</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -27702,28 +27818,28 @@
         <v>0.1024</v>
       </c>
       <c r="I5" t="n">
-        <v>0.2602835783336676</v>
+        <v>0.2631873523504933</v>
       </c>
       <c r="J5" t="n">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="K5" t="n">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="L5" t="n">
-        <v>0.04475896956315883</v>
+        <v>0.04611707414086608</v>
       </c>
       <c r="M5" t="n">
-        <v>6.71281950501059</v>
+        <v>6.695814487158009</v>
       </c>
       <c r="N5" t="n">
-        <v>80.15144984538969</v>
+        <v>79.82759326134108</v>
       </c>
       <c r="O5" t="n">
-        <v>8.952734210585596</v>
+        <v>8.934628882127175</v>
       </c>
       <c r="P5" t="n">
-        <v>311.7299408631926</v>
+        <v>311.7007223183995</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -27780,28 +27896,28 @@
         <v>0.0951</v>
       </c>
       <c r="I6" t="n">
-        <v>0.2113138254177218</v>
+        <v>0.217422794889804</v>
       </c>
       <c r="J6" t="n">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="K6" t="n">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="L6" t="n">
-        <v>0.03425667797728726</v>
+        <v>0.03641643255449689</v>
       </c>
       <c r="M6" t="n">
-        <v>6.291330034782879</v>
+        <v>6.290923187575858</v>
       </c>
       <c r="N6" t="n">
-        <v>69.57952615226293</v>
+        <v>69.48210233607084</v>
       </c>
       <c r="O6" t="n">
-        <v>8.341434298264474</v>
+        <v>8.335592500600713</v>
       </c>
       <c r="P6" t="n">
-        <v>314.3798811073715</v>
+        <v>314.3181384235774</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -27858,28 +27974,28 @@
         <v>0.08890000000000001</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1535454569187279</v>
+        <v>0.1589397063525153</v>
       </c>
       <c r="J7" t="n">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="K7" t="n">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="L7" t="n">
-        <v>0.01697111244035532</v>
+        <v>0.01829483277832356</v>
       </c>
       <c r="M7" t="n">
-        <v>6.617489577382793</v>
+        <v>6.611146378275166</v>
       </c>
       <c r="N7" t="n">
-        <v>75.59751325281852</v>
+        <v>75.42013412838146</v>
       </c>
       <c r="O7" t="n">
-        <v>8.694683044988961</v>
+        <v>8.684476617988068</v>
       </c>
       <c r="P7" t="n">
-        <v>317.0544456685214</v>
+        <v>317.000191825612</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -27936,28 +28052,28 @@
         <v>0.0887</v>
       </c>
       <c r="I8" t="n">
-        <v>0.009354114254904991</v>
+        <v>0.01671950977838163</v>
       </c>
       <c r="J8" t="n">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="K8" t="n">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="L8" t="n">
-        <v>5.921248754492403e-05</v>
+        <v>0.0001902666360668048</v>
       </c>
       <c r="M8" t="n">
-        <v>6.864094257945356</v>
+        <v>6.86887374138628</v>
       </c>
       <c r="N8" t="n">
-        <v>82.14720083421888</v>
+        <v>82.07800285154737</v>
       </c>
       <c r="O8" t="n">
-        <v>9.063509300167286</v>
+        <v>9.059691101331621</v>
       </c>
       <c r="P8" t="n">
-        <v>318.6183090859457</v>
+        <v>318.5443269495429</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -28014,28 +28130,28 @@
         <v>0.08260000000000001</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.0774104221008526</v>
+        <v>-0.07073920171470609</v>
       </c>
       <c r="J9" t="n">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="K9" t="n">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="L9" t="n">
-        <v>0.003639527622615768</v>
+        <v>0.003061950232289945</v>
       </c>
       <c r="M9" t="n">
-        <v>7.243394609820177</v>
+        <v>7.241357207614529</v>
       </c>
       <c r="N9" t="n">
-        <v>90.79891169066302</v>
+        <v>90.6442322505082</v>
       </c>
       <c r="O9" t="n">
-        <v>9.52884629378935</v>
+        <v>9.520726456027827</v>
       </c>
       <c r="P9" t="n">
-        <v>321.7466883613349</v>
+        <v>321.6798587542451</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -28092,28 +28208,28 @@
         <v>0.09180000000000001</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.05031132697536658</v>
+        <v>-0.04250195145750266</v>
       </c>
       <c r="J10" t="n">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="K10" t="n">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="L10" t="n">
-        <v>0.001460974528804004</v>
+        <v>0.001049101100080385</v>
       </c>
       <c r="M10" t="n">
-        <v>7.496175069244464</v>
+        <v>7.50178307989267</v>
       </c>
       <c r="N10" t="n">
-        <v>95.13450709509063</v>
+        <v>95.08473281233438</v>
       </c>
       <c r="O10" t="n">
-        <v>9.753691972534842</v>
+        <v>9.751140077567053</v>
       </c>
       <c r="P10" t="n">
-        <v>324.0088611423232</v>
+        <v>323.9304659550684</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -28170,28 +28286,28 @@
         <v>0.1199</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.1278930689968129</v>
+        <v>-0.1222873735419105</v>
       </c>
       <c r="J11" t="n">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="K11" t="n">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="L11" t="n">
-        <v>0.01156639647154734</v>
+        <v>0.01066541066276661</v>
       </c>
       <c r="M11" t="n">
-        <v>6.969303746878105</v>
+        <v>6.965031372428387</v>
       </c>
       <c r="N11" t="n">
-        <v>77.40443873843469</v>
+        <v>77.22422020859466</v>
       </c>
       <c r="O11" t="n">
-        <v>8.797979241759705</v>
+        <v>8.787731232155126</v>
       </c>
       <c r="P11" t="n">
-        <v>323.558638729632</v>
+        <v>323.5026353473438</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -28248,28 +28364,28 @@
         <v>0.0746</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.2149248089886807</v>
+        <v>-0.2131874268967897</v>
       </c>
       <c r="J12" t="n">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="K12" t="n">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="L12" t="n">
-        <v>0.02780301739890478</v>
+        <v>0.02762842195458515</v>
       </c>
       <c r="M12" t="n">
-        <v>7.024143999345839</v>
+        <v>7.000295445304578</v>
       </c>
       <c r="N12" t="n">
-        <v>89.09101622992506</v>
+        <v>88.69973998460382</v>
       </c>
       <c r="O12" t="n">
-        <v>9.438803749942313</v>
+        <v>9.418053938293401</v>
       </c>
       <c r="P12" t="n">
-        <v>316.1412610930009</v>
+        <v>316.1238851705064</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -28326,28 +28442,28 @@
         <v>0.0684</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.2385408617284501</v>
+        <v>-0.2448892981502107</v>
       </c>
       <c r="J13" t="n">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="K13" t="n">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="L13" t="n">
-        <v>0.03392353054394615</v>
+        <v>0.03590032054003089</v>
       </c>
       <c r="M13" t="n">
-        <v>7.186604652946145</v>
+        <v>7.187421372438388</v>
       </c>
       <c r="N13" t="n">
-        <v>89.48711462421383</v>
+        <v>89.44619485073677</v>
       </c>
       <c r="O13" t="n">
-        <v>9.459762926427587</v>
+        <v>9.457599846194423</v>
       </c>
       <c r="P13" t="n">
-        <v>319.4044591437853</v>
+        <v>319.46763100924</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -28385,7 +28501,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N469"/>
+  <dimension ref="A1:N471"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -60269,6 +60385,150 @@
         </is>
       </c>
     </row>
+    <row r="470">
+      <c r="A470" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-07 22:20:30+00:00</t>
+        </is>
+      </c>
+      <c r="B470" t="inlineStr">
+        <is>
+          <t>-46.38425858038489,168.02901753002067</t>
+        </is>
+      </c>
+      <c r="C470" t="inlineStr">
+        <is>
+          <t>-46.38404451233216,168.02817320647122</t>
+        </is>
+      </c>
+      <c r="D470" t="inlineStr">
+        <is>
+          <t>-46.38391146960091,168.02729448304186</t>
+        </is>
+      </c>
+      <c r="E470" t="inlineStr">
+        <is>
+          <t>-46.38376229350428,168.0264226090481</t>
+        </is>
+      </c>
+      <c r="F470" t="inlineStr">
+        <is>
+          <t>-46.38364464548895,168.02553734828862</t>
+        </is>
+      </c>
+      <c r="G470" t="inlineStr">
+        <is>
+          <t>-46.383513409033945,168.02465785639495</t>
+        </is>
+      </c>
+      <c r="H470" t="inlineStr">
+        <is>
+          <t>-46.38335683180438,168.0237891240198</t>
+        </is>
+      </c>
+      <c r="I470" t="inlineStr">
+        <is>
+          <t>-46.38320718644448,168.02291744819112</t>
+        </is>
+      </c>
+      <c r="J470" t="inlineStr">
+        <is>
+          <t>-46.3830766152059,168.02202446577147</t>
+        </is>
+      </c>
+      <c r="K470" t="inlineStr">
+        <is>
+          <t>-46.383039530656795,168.02111591909596</t>
+        </is>
+      </c>
+      <c r="L470" t="inlineStr">
+        <is>
+          <t>-46.38291223246745,168.0202252044822</t>
+        </is>
+      </c>
+      <c r="M470" t="inlineStr">
+        <is>
+          <t>-46.382795279121105,168.01933533888237</t>
+        </is>
+      </c>
+      <c r="N470" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-23 22:20:39+00:00</t>
+        </is>
+      </c>
+      <c r="B471" t="inlineStr">
+        <is>
+          <t>-46.384217121625916,168.02903513138887</t>
+        </is>
+      </c>
+      <c r="C471" t="inlineStr">
+        <is>
+          <t>-46.384014431108824,168.02818597777593</t>
+        </is>
+      </c>
+      <c r="D471" t="inlineStr">
+        <is>
+          <t>-46.38393594823329,168.02728409010126</t>
+        </is>
+      </c>
+      <c r="E471" t="inlineStr">
+        <is>
+          <t>-46.383761517775135,168.0264229384089</t>
+        </is>
+      </c>
+      <c r="F471" t="inlineStr">
+        <is>
+          <t>-46.38366800348833,168.02552743063453</t>
+        </is>
+      </c>
+      <c r="G471" t="inlineStr">
+        <is>
+          <t>-46.38350849611058,168.024659942442</t>
+        </is>
+      </c>
+      <c r="H471" t="inlineStr">
+        <is>
+          <t>-46.383366743815024,168.0237849152362</t>
+        </is>
+      </c>
+      <c r="I471" t="inlineStr">
+        <is>
+          <t>-46.3832217527498,168.02291126297325</t>
+        </is>
+      </c>
+      <c r="J471" t="inlineStr">
+        <is>
+          <t>-46.383128142292655,168.02201091016587</t>
+        </is>
+      </c>
+      <c r="K471" t="inlineStr">
+        <is>
+          <t>-46.38303997893813,168.02111587812402</t>
+        </is>
+      </c>
+      <c r="L471" t="inlineStr">
+        <is>
+          <t>-46.382905414298605,168.02022571979293</t>
+        </is>
+      </c>
+      <c r="M471" t="inlineStr">
+        <is>
+          <t>-46.38290347258226,168.0193271605276</t>
+        </is>
+      </c>
+      <c r="N471" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0535/nzd0535.xlsx
+++ b/data/nzd0535/nzd0535.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N471"/>
+  <dimension ref="A1:N474"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22122,6 +22122,134 @@
         </is>
       </c>
     </row>
+    <row r="472">
+      <c r="A472" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-08 22:20:48+00:00</t>
+        </is>
+      </c>
+      <c r="B472" t="n">
+        <v>316.18</v>
+      </c>
+      <c r="C472" t="n">
+        <v>308.5584210526316</v>
+      </c>
+      <c r="D472" t="n">
+        <v>314.2</v>
+      </c>
+      <c r="E472" t="n">
+        <v>310</v>
+      </c>
+      <c r="F472" t="n">
+        <v>318.705</v>
+      </c>
+      <c r="G472" t="n">
+        <v>321.51</v>
+      </c>
+      <c r="H472" t="n">
+        <v>315.095</v>
+      </c>
+      <c r="I472" t="n">
+        <v>318.5157142857143</v>
+      </c>
+      <c r="J472" t="n">
+        <v>321.175</v>
+      </c>
+      <c r="K472" t="n">
+        <v>324.6484210526315</v>
+      </c>
+      <c r="L472" t="n">
+        <v>314.7261538461539</v>
+      </c>
+      <c r="M472" t="n">
+        <v>317.66</v>
+      </c>
+      <c r="N472" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-23 22:27:01+00:00</t>
+        </is>
+      </c>
+      <c r="B473" t="n">
+        <v>330.7</v>
+      </c>
+      <c r="C473" t="n">
+        <v>320.4157894736842</v>
+      </c>
+      <c r="D473" t="n">
+        <v>319.8033333333333</v>
+      </c>
+      <c r="E473" t="n">
+        <v>321.3782352941176</v>
+      </c>
+      <c r="F473" t="n">
+        <v>324.71</v>
+      </c>
+      <c r="G473" t="n">
+        <v>329.4133333333334</v>
+      </c>
+      <c r="H473" t="n">
+        <v>326.68</v>
+      </c>
+      <c r="I473" t="n">
+        <v>325.3928571428572</v>
+      </c>
+      <c r="J473" t="n">
+        <v>324.44</v>
+      </c>
+      <c r="K473" t="n">
+        <v>323.8157894736842</v>
+      </c>
+      <c r="L473" t="n">
+        <v>312.4746153846153</v>
+      </c>
+      <c r="M473" t="n">
+        <v>312.5866666666667</v>
+      </c>
+      <c r="N473" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-24 22:20:54+00:00</t>
+        </is>
+      </c>
+      <c r="B474" t="n">
+        <v>312.45</v>
+      </c>
+      <c r="C474" t="n">
+        <v>311.3031578947368</v>
+      </c>
+      <c r="D474" t="n">
+        <v>305.4633333333334</v>
+      </c>
+      <c r="E474" t="inlineStr"/>
+      <c r="F474" t="inlineStr"/>
+      <c r="G474" t="inlineStr"/>
+      <c r="H474" t="inlineStr"/>
+      <c r="I474" t="inlineStr"/>
+      <c r="J474" t="inlineStr"/>
+      <c r="K474" t="inlineStr"/>
+      <c r="L474" t="inlineStr"/>
+      <c r="M474" t="n">
+        <v>320.7066666666667</v>
+      </c>
+      <c r="N474" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -22133,7 +22261,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B527"/>
+  <dimension ref="A1:B530"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27411,6 +27539,36 @@
       </c>
       <c r="B527" t="n">
         <v>0.75</v>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" t="inlineStr">
+        <is>
+          <t>2025-08-08 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B528" t="n">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" t="inlineStr">
+        <is>
+          <t>2025-08-23 22:30:00+00:00</t>
+        </is>
+      </c>
+      <c r="B529" t="n">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" t="inlineStr">
+        <is>
+          <t>2025-08-24 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B530" t="n">
+        <v>-0.26</v>
       </c>
     </row>
   </sheetData>
@@ -27584,28 +27742,28 @@
         <v>0.1208</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1638152043236953</v>
+        <v>0.152246620180649</v>
       </c>
       <c r="J2" t="n">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="K2" t="n">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01563023901253036</v>
+        <v>0.01359054496536649</v>
       </c>
       <c r="M2" t="n">
-        <v>7.423684459876136</v>
+        <v>7.438305369389073</v>
       </c>
       <c r="N2" t="n">
-        <v>93.81847494858646</v>
+        <v>94.09682511812822</v>
       </c>
       <c r="O2" t="n">
-        <v>9.685993751215538</v>
+        <v>9.700351803833108</v>
       </c>
       <c r="P2" t="n">
-        <v>324.0104126365373</v>
+        <v>324.1282647361052</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -27662,28 +27820,28 @@
         <v>0.114</v>
       </c>
       <c r="I3" t="n">
-        <v>0.320150048252593</v>
+        <v>0.3122569358690266</v>
       </c>
       <c r="J3" t="n">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="K3" t="n">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="L3" t="n">
-        <v>0.06480695049124441</v>
+        <v>0.0623905876730726</v>
       </c>
       <c r="M3" t="n">
-        <v>6.757052679224718</v>
+        <v>6.75551861812926</v>
       </c>
       <c r="N3" t="n">
-        <v>81.58983097220165</v>
+        <v>81.43245755715338</v>
       </c>
       <c r="O3" t="n">
-        <v>9.032708949822398</v>
+        <v>9.02399343733989</v>
       </c>
       <c r="P3" t="n">
-        <v>310.9360372955641</v>
+        <v>311.0168629553678</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -27740,28 +27898,28 @@
         <v>0.08500000000000001</v>
       </c>
       <c r="I4" t="n">
-        <v>0.2476789177878948</v>
+        <v>0.2399220339496063</v>
       </c>
       <c r="J4" t="n">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="K4" t="n">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="L4" t="n">
-        <v>0.04414635537280287</v>
+        <v>0.04185599589183631</v>
       </c>
       <c r="M4" t="n">
-        <v>6.840302309887535</v>
+        <v>6.838735041871092</v>
       </c>
       <c r="N4" t="n">
-        <v>73.19798990856135</v>
+        <v>73.15601495236277</v>
       </c>
       <c r="O4" t="n">
-        <v>8.555582382781511</v>
+        <v>8.553128956841629</v>
       </c>
       <c r="P4" t="n">
-        <v>312.4488291210135</v>
+        <v>312.5284076089343</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -27818,28 +27976,28 @@
         <v>0.1024</v>
       </c>
       <c r="I5" t="n">
-        <v>0.2631873523504933</v>
+        <v>0.2606361625062849</v>
       </c>
       <c r="J5" t="n">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="K5" t="n">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="L5" t="n">
-        <v>0.04611707414086608</v>
+        <v>0.04558629324214136</v>
       </c>
       <c r="M5" t="n">
-        <v>6.695814487158009</v>
+        <v>6.691923821485044</v>
       </c>
       <c r="N5" t="n">
-        <v>79.82759326134108</v>
+        <v>79.64577304483164</v>
       </c>
       <c r="O5" t="n">
-        <v>8.934628882127175</v>
+        <v>8.924448052671472</v>
       </c>
       <c r="P5" t="n">
-        <v>311.7007223183995</v>
+        <v>311.7264486547405</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -27896,28 +28054,28 @@
         <v>0.0951</v>
       </c>
       <c r="I6" t="n">
-        <v>0.217422794889804</v>
+        <v>0.2189441203000406</v>
       </c>
       <c r="J6" t="n">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="K6" t="n">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="L6" t="n">
-        <v>0.03641643255449689</v>
+        <v>0.03722237113852722</v>
       </c>
       <c r="M6" t="n">
-        <v>6.290923187575858</v>
+        <v>6.27506065596609</v>
       </c>
       <c r="N6" t="n">
-        <v>69.48210233607084</v>
+        <v>69.21795391337265</v>
       </c>
       <c r="O6" t="n">
-        <v>8.335592500600713</v>
+        <v>8.319732803003511</v>
       </c>
       <c r="P6" t="n">
-        <v>314.3181384235774</v>
+        <v>314.3026763424498</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -27974,28 +28132,28 @@
         <v>0.08890000000000001</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1589397063525153</v>
+        <v>0.1627402732707714</v>
       </c>
       <c r="J7" t="n">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="K7" t="n">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="L7" t="n">
-        <v>0.01829483277832356</v>
+        <v>0.01930557387401821</v>
       </c>
       <c r="M7" t="n">
-        <v>6.611146378275166</v>
+        <v>6.598003378408066</v>
       </c>
       <c r="N7" t="n">
-        <v>75.42013412838146</v>
+        <v>75.23164047638281</v>
       </c>
       <c r="O7" t="n">
-        <v>8.684476617988068</v>
+        <v>8.673617496545649</v>
       </c>
       <c r="P7" t="n">
-        <v>317.000191825612</v>
+        <v>316.9617751077271</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -28052,28 +28210,28 @@
         <v>0.0887</v>
       </c>
       <c r="I8" t="n">
-        <v>0.01671950977838163</v>
+        <v>0.0184232288374975</v>
       </c>
       <c r="J8" t="n">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="K8" t="n">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0001902666360668048</v>
+        <v>0.0002327681625841072</v>
       </c>
       <c r="M8" t="n">
-        <v>6.86887374138628</v>
+        <v>6.863566539076806</v>
       </c>
       <c r="N8" t="n">
-        <v>82.07800285154737</v>
+        <v>81.87040845628893</v>
       </c>
       <c r="O8" t="n">
-        <v>9.059691101331621</v>
+        <v>9.048226812822993</v>
       </c>
       <c r="P8" t="n">
-        <v>318.5443269495429</v>
+        <v>318.5270939336832</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -28130,28 +28288,28 @@
         <v>0.08260000000000001</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.07073920171470609</v>
+        <v>-0.06886906201809086</v>
       </c>
       <c r="J9" t="n">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="K9" t="n">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="L9" t="n">
-        <v>0.003061950232289945</v>
+        <v>0.002928412973351668</v>
       </c>
       <c r="M9" t="n">
-        <v>7.241357207614529</v>
+        <v>7.223326374876995</v>
       </c>
       <c r="N9" t="n">
-        <v>90.6442322505082</v>
+        <v>90.30842567358663</v>
       </c>
       <c r="O9" t="n">
-        <v>9.520726456027827</v>
+        <v>9.503074537937005</v>
       </c>
       <c r="P9" t="n">
-        <v>321.6798587542451</v>
+        <v>321.661021844954</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -28208,28 +28366,28 @@
         <v>0.09180000000000001</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.04250195145750266</v>
+        <v>-0.04251189959210854</v>
       </c>
       <c r="J10" t="n">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="K10" t="n">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="L10" t="n">
-        <v>0.001049101100080385</v>
+        <v>0.001059740810013476</v>
       </c>
       <c r="M10" t="n">
-        <v>7.50178307989267</v>
+        <v>7.475348291024127</v>
       </c>
       <c r="N10" t="n">
-        <v>95.08473281233438</v>
+        <v>94.66844171430152</v>
       </c>
       <c r="O10" t="n">
-        <v>9.751140077567053</v>
+        <v>9.729770897318268</v>
       </c>
       <c r="P10" t="n">
-        <v>323.9304659550684</v>
+        <v>323.9305523507617</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -28286,28 +28444,28 @@
         <v>0.1199</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.1222873735419105</v>
+        <v>-0.1187825037287995</v>
       </c>
       <c r="J11" t="n">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="K11" t="n">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="L11" t="n">
-        <v>0.01066541066276661</v>
+        <v>0.01015863355661162</v>
       </c>
       <c r="M11" t="n">
-        <v>6.965031372428387</v>
+        <v>6.950338687233759</v>
       </c>
       <c r="N11" t="n">
-        <v>77.22422020859466</v>
+        <v>76.9408681225692</v>
       </c>
       <c r="O11" t="n">
-        <v>8.787731232155126</v>
+        <v>8.771594388853671</v>
       </c>
       <c r="P11" t="n">
-        <v>323.5026353473438</v>
+        <v>323.4674833812611</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -28364,28 +28522,28 @@
         <v>0.0746</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.2131874268967897</v>
+        <v>-0.210464851586372</v>
       </c>
       <c r="J12" t="n">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="K12" t="n">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="L12" t="n">
-        <v>0.02762842195458515</v>
+        <v>0.02719322511129696</v>
       </c>
       <c r="M12" t="n">
-        <v>7.000295445304578</v>
+        <v>6.98145896152986</v>
       </c>
       <c r="N12" t="n">
-        <v>88.69973998460382</v>
+        <v>88.3419836085891</v>
       </c>
       <c r="O12" t="n">
-        <v>9.418053938293401</v>
+        <v>9.399041632453232</v>
       </c>
       <c r="P12" t="n">
-        <v>316.1238851705064</v>
+        <v>316.096551881005</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -28442,28 +28600,28 @@
         <v>0.0684</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.2448892981502107</v>
+        <v>-0.2394248211215924</v>
       </c>
       <c r="J13" t="n">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="K13" t="n">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="L13" t="n">
-        <v>0.03590032054003089</v>
+        <v>0.03482204677820511</v>
       </c>
       <c r="M13" t="n">
-        <v>7.187421372438388</v>
+        <v>7.163547572840014</v>
       </c>
       <c r="N13" t="n">
-        <v>89.44619485073677</v>
+        <v>88.99502926781904</v>
       </c>
       <c r="O13" t="n">
-        <v>9.457599846194423</v>
+        <v>9.433717680099349</v>
       </c>
       <c r="P13" t="n">
-        <v>319.46763100924</v>
+        <v>319.4129748022041</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -28501,7 +28659,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N471"/>
+  <dimension ref="A1:N474"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -60529,6 +60687,190 @@
         </is>
       </c>
     </row>
+    <row r="472">
+      <c r="A472" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-08 22:20:48+00:00</t>
+        </is>
+      </c>
+      <c r="B472" t="inlineStr">
+        <is>
+          <t>-46.384160320533915,168.02905924631384</t>
+        </is>
+      </c>
+      <c r="C472" t="inlineStr">
+        <is>
+          <t>-46.38394585353307,168.02821509305767</t>
+        </is>
+      </c>
+      <c r="D472" t="inlineStr">
+        <is>
+          <t>-46.383845704817666,168.02732240487072</t>
+        </is>
+      </c>
+      <c r="E472" t="inlineStr">
+        <is>
+          <t>-46.38366072874361,168.02646573154664</t>
+        </is>
+      </c>
+      <c r="F472" t="inlineStr">
+        <is>
+          <t>-46.383586983116125,168.02556183131398</t>
+        </is>
+      </c>
+      <c r="G472" t="inlineStr">
+        <is>
+          <t>-46.38346238358157,168.02467952198654</t>
+        </is>
+      </c>
+      <c r="H472" t="inlineStr">
+        <is>
+          <t>-46.383258315025266,168.02383095557852</t>
+        </is>
+      </c>
+      <c r="I472" t="inlineStr">
+        <is>
+          <t>-46.383139021546825,168.02294639266265</t>
+        </is>
+      </c>
+      <c r="J472" t="inlineStr">
+        <is>
+          <t>-46.3830114771864,168.0220416020609</t>
+        </is>
+      </c>
+      <c r="K472" t="inlineStr">
+        <is>
+          <t>-46.38302351521594,168.02111738287243</t>
+        </is>
+      </c>
+      <c r="L472" t="inlineStr">
+        <is>
+          <t>-46.382928988048306,168.0202239381104</t>
+        </is>
+      </c>
+      <c r="M472" t="inlineStr">
+        <is>
+          <t>-46.3829496745983,168.0193236680972</t>
+        </is>
+      </c>
+      <c r="N472" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-23 22:27:01+00:00</t>
+        </is>
+      </c>
+      <c r="B473" t="inlineStr">
+        <is>
+          <t>-46.38428547255075,168.02900611290138</t>
+        </is>
+      </c>
+      <c r="C473" t="inlineStr">
+        <is>
+          <t>-46.38404805530222,168.0281717022644</t>
+        </is>
+      </c>
+      <c r="D473" t="inlineStr">
+        <is>
+          <t>-46.38389400128026,168.0273018995942</t>
+        </is>
+      </c>
+      <c r="E473" t="inlineStr">
+        <is>
+          <t>-46.383758800187984,168.02642409224796</t>
+        </is>
+      </c>
+      <c r="F473" t="inlineStr">
+        <is>
+          <t>-46.38363874134501,168.02553985514805</t>
+        </is>
+      </c>
+      <c r="G473" t="inlineStr">
+        <is>
+          <t>-46.383530503708364,168.02465059792394</t>
+        </is>
+      </c>
+      <c r="H473" t="inlineStr">
+        <is>
+          <t>-46.38335816777104,168.02378855674908</t>
+        </is>
+      </c>
+      <c r="I473" t="inlineStr">
+        <is>
+          <t>-46.38319829644217,168.0229212231068</t>
+        </is>
+      </c>
+      <c r="J473" t="inlineStr">
+        <is>
+          <t>-46.38304033412506,168.02203401048124</t>
+        </is>
+      </c>
+      <c r="K473" t="inlineStr">
+        <is>
+          <t>-46.383016050151845,168.0211180651626</t>
+        </is>
+      </c>
+      <c r="L473" t="inlineStr">
+        <is>
+          <t>-46.38290878887813,168.02022546474544</t>
+        </is>
+      </c>
+      <c r="M473" t="inlineStr">
+        <is>
+          <t>-46.38290416037926,168.0193271085368</t>
+        </is>
+      </c>
+      <c r="N473" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-24 22:20:54+00:00</t>
+        </is>
+      </c>
+      <c r="B474" t="inlineStr">
+        <is>
+          <t>-46.384128170595396,168.0290728955567</t>
+        </is>
+      </c>
+      <c r="C474" t="inlineStr">
+        <is>
+          <t>-46.383969511142126,168.02820504899748</t>
+        </is>
+      </c>
+      <c r="D474" t="inlineStr">
+        <is>
+          <t>-46.38377040139918,168.02735437643366</t>
+        </is>
+      </c>
+      <c r="E474" t="inlineStr"/>
+      <c r="F474" t="inlineStr"/>
+      <c r="G474" t="inlineStr"/>
+      <c r="H474" t="inlineStr"/>
+      <c r="I474" t="inlineStr"/>
+      <c r="J474" t="inlineStr"/>
+      <c r="K474" t="inlineStr"/>
+      <c r="L474" t="inlineStr"/>
+      <c r="M474" t="inlineStr">
+        <is>
+          <t>-46.38297700705283,168.01932160202077</t>
+        </is>
+      </c>
+      <c r="N474" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0535/nzd0535.xlsx
+++ b/data/nzd0535/nzd0535.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N474"/>
+  <dimension ref="A1:N475"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22250,6 +22250,54 @@
         </is>
       </c>
     </row>
+    <row r="475">
+      <c r="A475" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-09 22:21:00+00:00</t>
+        </is>
+      </c>
+      <c r="B475" t="n">
+        <v>318.85</v>
+      </c>
+      <c r="C475" t="n">
+        <v>311.6215789473684</v>
+      </c>
+      <c r="D475" t="n">
+        <v>310.1</v>
+      </c>
+      <c r="E475" t="n">
+        <v>309.2</v>
+      </c>
+      <c r="F475" t="n">
+        <v>312.425</v>
+      </c>
+      <c r="G475" t="n">
+        <v>313.68</v>
+      </c>
+      <c r="H475" t="n">
+        <v>314.755</v>
+      </c>
+      <c r="I475" t="n">
+        <v>310.3942857142857</v>
+      </c>
+      <c r="J475" t="n">
+        <v>312.905</v>
+      </c>
+      <c r="K475" t="n">
+        <v>312.4515789473684</v>
+      </c>
+      <c r="L475" t="n">
+        <v>304.0138461538461</v>
+      </c>
+      <c r="M475" t="n">
+        <v>304.44</v>
+      </c>
+      <c r="N475" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -22261,7 +22309,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B530"/>
+  <dimension ref="A1:B531"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27569,6 +27617,16 @@
       </c>
       <c r="B530" t="n">
         <v>-0.26</v>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" t="inlineStr">
+        <is>
+          <t>2025-09-09 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B531" t="n">
+        <v>-0.51</v>
       </c>
     </row>
   </sheetData>
@@ -27742,28 +27800,28 @@
         <v>0.1208</v>
       </c>
       <c r="I2" t="n">
-        <v>0.152246620180649</v>
+        <v>0.1480548320471476</v>
       </c>
       <c r="J2" t="n">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="K2" t="n">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01359054496536649</v>
+        <v>0.01289640832212424</v>
       </c>
       <c r="M2" t="n">
-        <v>7.438305369389073</v>
+        <v>7.44097093509753</v>
       </c>
       <c r="N2" t="n">
-        <v>94.09682511812822</v>
+        <v>94.07551591068278</v>
       </c>
       <c r="O2" t="n">
-        <v>9.700351803833108</v>
+        <v>9.699253368722914</v>
       </c>
       <c r="P2" t="n">
-        <v>324.1282647361052</v>
+        <v>324.171099758178</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -27820,28 +27878,28 @@
         <v>0.114</v>
       </c>
       <c r="I3" t="n">
-        <v>0.3122569358690266</v>
+        <v>0.3088659985678813</v>
       </c>
       <c r="J3" t="n">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="K3" t="n">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0623905876730726</v>
+        <v>0.06130667490419484</v>
       </c>
       <c r="M3" t="n">
-        <v>6.75551861812926</v>
+        <v>6.757242902278111</v>
       </c>
       <c r="N3" t="n">
-        <v>81.43245755715338</v>
+        <v>81.37455942160746</v>
       </c>
       <c r="O3" t="n">
-        <v>9.02399343733989</v>
+        <v>9.020784856186708</v>
       </c>
       <c r="P3" t="n">
-        <v>311.0168629553678</v>
+        <v>311.0517034674642</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -27898,28 +27956,28 @@
         <v>0.08500000000000001</v>
       </c>
       <c r="I4" t="n">
-        <v>0.2399220339496063</v>
+        <v>0.2360200291456923</v>
       </c>
       <c r="J4" t="n">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="K4" t="n">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="L4" t="n">
-        <v>0.04185599589183631</v>
+        <v>0.04065282211835786</v>
       </c>
       <c r="M4" t="n">
-        <v>6.838735041871092</v>
+        <v>6.843920947480378</v>
       </c>
       <c r="N4" t="n">
-        <v>73.15601495236277</v>
+        <v>73.16081444443617</v>
       </c>
       <c r="O4" t="n">
-        <v>8.553128956841629</v>
+        <v>8.553409521613949</v>
       </c>
       <c r="P4" t="n">
-        <v>312.5284076089343</v>
+        <v>312.5685452359683</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -27976,28 +28034,28 @@
         <v>0.1024</v>
       </c>
       <c r="I5" t="n">
-        <v>0.2606361625062849</v>
+        <v>0.2564819278962732</v>
       </c>
       <c r="J5" t="n">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="K5" t="n">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="L5" t="n">
-        <v>0.04558629324214136</v>
+        <v>0.04430700388353404</v>
       </c>
       <c r="M5" t="n">
-        <v>6.691923821485044</v>
+        <v>6.699149531592072</v>
       </c>
       <c r="N5" t="n">
-        <v>79.64577304483164</v>
+        <v>79.66194044905522</v>
       </c>
       <c r="O5" t="n">
-        <v>8.924448052671472</v>
+        <v>8.9253537996572</v>
       </c>
       <c r="P5" t="n">
-        <v>311.7264486547405</v>
+        <v>311.7685546646315</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -28054,28 +28112,28 @@
         <v>0.0951</v>
       </c>
       <c r="I6" t="n">
-        <v>0.2189441203000406</v>
+        <v>0.2155914494992997</v>
       </c>
       <c r="J6" t="n">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="K6" t="n">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="L6" t="n">
-        <v>0.03722237113852722</v>
+        <v>0.03623233350295063</v>
       </c>
       <c r="M6" t="n">
-        <v>6.27506065596609</v>
+        <v>6.279639729004477</v>
       </c>
       <c r="N6" t="n">
-        <v>69.21795391337265</v>
+        <v>69.19092403931157</v>
       </c>
       <c r="O6" t="n">
-        <v>8.319732803003511</v>
+        <v>8.318108200745622</v>
       </c>
       <c r="P6" t="n">
-        <v>314.3026763424498</v>
+        <v>314.3368016101853</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -28132,28 +28190,28 @@
         <v>0.08890000000000001</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1627402732707714</v>
+        <v>0.1594298110458061</v>
       </c>
       <c r="J7" t="n">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="K7" t="n">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="L7" t="n">
-        <v>0.01930557387401821</v>
+        <v>0.01859883028215814</v>
       </c>
       <c r="M7" t="n">
-        <v>6.598003378408066</v>
+        <v>6.602339590059448</v>
       </c>
       <c r="N7" t="n">
-        <v>75.23164047638281</v>
+        <v>75.18897895480661</v>
       </c>
       <c r="O7" t="n">
-        <v>8.673617496545649</v>
+        <v>8.671157878553856</v>
       </c>
       <c r="P7" t="n">
-        <v>316.9617751077271</v>
+        <v>316.9953135925728</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -28210,28 +28268,28 @@
         <v>0.0887</v>
       </c>
       <c r="I8" t="n">
-        <v>0.0184232288374975</v>
+        <v>0.01653575454773271</v>
       </c>
       <c r="J8" t="n">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="K8" t="n">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0002327681625841072</v>
+        <v>0.0001883382153304858</v>
       </c>
       <c r="M8" t="n">
-        <v>6.863566539076806</v>
+        <v>6.857852767406556</v>
       </c>
       <c r="N8" t="n">
-        <v>81.87040845628893</v>
+        <v>81.72316534273969</v>
       </c>
       <c r="O8" t="n">
-        <v>9.048226812822993</v>
+        <v>9.040086578276764</v>
       </c>
       <c r="P8" t="n">
-        <v>318.5270939336832</v>
+        <v>318.5461898532389</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -28288,28 +28346,28 @@
         <v>0.08260000000000001</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.06886906201809086</v>
+        <v>-0.07302811593054409</v>
       </c>
       <c r="J9" t="n">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="K9" t="n">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="L9" t="n">
-        <v>0.002928412973351668</v>
+        <v>0.003300155839656926</v>
       </c>
       <c r="M9" t="n">
-        <v>7.223326374876995</v>
+        <v>7.230152687300035</v>
       </c>
       <c r="N9" t="n">
-        <v>90.30842567358663</v>
+        <v>90.30540358288926</v>
       </c>
       <c r="O9" t="n">
-        <v>9.503074537937005</v>
+        <v>9.502915530661591</v>
       </c>
       <c r="P9" t="n">
-        <v>321.661021844954</v>
+        <v>321.7029792787161</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -28366,28 +28424,28 @@
         <v>0.09180000000000001</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.04251189959210854</v>
+        <v>-0.04689586100186894</v>
       </c>
       <c r="J10" t="n">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="K10" t="n">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="L10" t="n">
-        <v>0.001059740810013476</v>
+        <v>0.001292572251787472</v>
       </c>
       <c r="M10" t="n">
-        <v>7.475348291024127</v>
+        <v>7.480724798802469</v>
       </c>
       <c r="N10" t="n">
-        <v>94.66844171430152</v>
+        <v>94.67499740193892</v>
       </c>
       <c r="O10" t="n">
-        <v>9.729770897318268</v>
+        <v>9.730107779564362</v>
       </c>
       <c r="P10" t="n">
-        <v>323.9305523507617</v>
+        <v>323.9748574531458</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -28444,28 +28502,28 @@
         <v>0.1199</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.1187825037287995</v>
+        <v>-0.1223158738554721</v>
       </c>
       <c r="J11" t="n">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="K11" t="n">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="L11" t="n">
-        <v>0.01015863355661162</v>
+        <v>0.01079826591339406</v>
       </c>
       <c r="M11" t="n">
-        <v>6.950338687233759</v>
+        <v>6.953153039982212</v>
       </c>
       <c r="N11" t="n">
-        <v>76.9408681225692</v>
+        <v>76.90700923095935</v>
       </c>
       <c r="O11" t="n">
-        <v>8.771594388853671</v>
+        <v>8.769664145847283</v>
       </c>
       <c r="P11" t="n">
-        <v>323.4674833812611</v>
+        <v>323.5030349768645</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -28522,28 +28580,28 @@
         <v>0.0746</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.210464851586372</v>
+        <v>-0.213411904556973</v>
       </c>
       <c r="J12" t="n">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="K12" t="n">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="L12" t="n">
-        <v>0.02719322511129696</v>
+        <v>0.02804311046415575</v>
       </c>
       <c r="M12" t="n">
-        <v>6.98145896152986</v>
+        <v>6.981245303009187</v>
       </c>
       <c r="N12" t="n">
-        <v>88.3419836085891</v>
+        <v>88.2386232416484</v>
       </c>
       <c r="O12" t="n">
-        <v>9.399041632453232</v>
+        <v>9.393541570762777</v>
       </c>
       <c r="P12" t="n">
-        <v>316.096551881005</v>
+        <v>316.1262405426779</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -28600,28 +28658,28 @@
         <v>0.0684</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.2394248211215924</v>
+        <v>-0.2434784693570236</v>
       </c>
       <c r="J13" t="n">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="K13" t="n">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="L13" t="n">
-        <v>0.03482204677820511</v>
+        <v>0.03607774611557479</v>
       </c>
       <c r="M13" t="n">
-        <v>7.163547572840014</v>
+        <v>7.16913753642859</v>
       </c>
       <c r="N13" t="n">
-        <v>88.99502926781904</v>
+        <v>88.96262815763623</v>
       </c>
       <c r="O13" t="n">
-        <v>9.433717680099349</v>
+        <v>9.43200022040056</v>
       </c>
       <c r="P13" t="n">
-        <v>319.4129748022041</v>
+        <v>319.4536333248443</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -28659,7 +28717,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N474"/>
+  <dimension ref="A1:N475"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -60871,6 +60929,78 @@
         </is>
       </c>
     </row>
+    <row r="475">
+      <c r="A475" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-09 22:21:00+00:00</t>
+        </is>
+      </c>
+      <c r="B475" t="inlineStr">
+        <is>
+          <t>-46.384183334027334,168.0290494759335</t>
+        </is>
+      </c>
+      <c r="C475" t="inlineStr">
+        <is>
+          <t>-46.383972255696875,168.0282038837703</t>
+        </is>
+      </c>
+      <c r="D475" t="inlineStr">
+        <is>
+          <t>-46.3838103659392,168.02733740870656</t>
+        </is>
+      </c>
+      <c r="E475" t="inlineStr">
+        <is>
+          <t>-46.38365383337162,168.02646865918595</t>
+        </is>
+      </c>
+      <c r="F475" t="inlineStr">
+        <is>
+          <t>-46.38353285460371,168.02558481383363</t>
+        </is>
+      </c>
+      <c r="G475" t="inlineStr">
+        <is>
+          <t>-46.38339489551626,168.02470817759144</t>
+        </is>
+      </c>
+      <c r="H475" t="inlineStr">
+        <is>
+          <t>-46.38325538451706,168.02383219990932</t>
+        </is>
+      </c>
+      <c r="I475" t="inlineStr">
+        <is>
+          <t>-46.383069021997535,168.02297611608518</t>
+        </is>
+      </c>
+      <c r="J475" t="inlineStr">
+        <is>
+          <t>-46.38293838472206,168.02206083092116</t>
+        </is>
+      </c>
+      <c r="K475" t="inlineStr">
+        <is>
+          <t>-46.38291416287835,168.02112737740467</t>
+        </is>
+      </c>
+      <c r="L475" t="inlineStr">
+        <is>
+          <t>-46.38283288499168,168.0202312014769</t>
+        </is>
+      </c>
+      <c r="M475" t="inlineStr">
+        <is>
+          <t>-46.38283107447053,168.01933263311383</t>
+        </is>
+      </c>
+      <c r="N475" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0535/nzd0535.xlsx
+++ b/data/nzd0535/nzd0535.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N475"/>
+  <dimension ref="A1:N477"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22298,6 +22298,102 @@
         </is>
       </c>
     </row>
+    <row r="476">
+      <c r="A476" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-24 22:27:12+00:00</t>
+        </is>
+      </c>
+      <c r="B476" t="n">
+        <v>330.21</v>
+      </c>
+      <c r="C476" t="n">
+        <v>324.0226315789474</v>
+      </c>
+      <c r="D476" t="n">
+        <v>321.8333333333334</v>
+      </c>
+      <c r="E476" t="n">
+        <v>319.6005882352941</v>
+      </c>
+      <c r="F476" t="n">
+        <v>319.665</v>
+      </c>
+      <c r="G476" t="n">
+        <v>317.3633333333333</v>
+      </c>
+      <c r="H476" t="n">
+        <v>314.585</v>
+      </c>
+      <c r="I476" t="n">
+        <v>314.7457142857143</v>
+      </c>
+      <c r="J476" t="n">
+        <v>316.105</v>
+      </c>
+      <c r="K476" t="n">
+        <v>309.4326315789473</v>
+      </c>
+      <c r="L476" t="n">
+        <v>306.1992307692308</v>
+      </c>
+      <c r="M476" t="n">
+        <v>305.8166666666667</v>
+      </c>
+      <c r="N476" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" s="1" t="inlineStr">
+        <is>
+          <t>2025-10-02 22:27:13+00:00</t>
+        </is>
+      </c>
+      <c r="B477" t="n">
+        <v>344.27</v>
+      </c>
+      <c r="C477" t="n">
+        <v>330.0268421052632</v>
+      </c>
+      <c r="D477" t="n">
+        <v>334.0033333333334</v>
+      </c>
+      <c r="E477" t="n">
+        <v>331.5094117647059</v>
+      </c>
+      <c r="F477" t="n">
+        <v>331.03</v>
+      </c>
+      <c r="G477" t="n">
+        <v>330.5033333333334</v>
+      </c>
+      <c r="H477" t="n">
+        <v>327.17</v>
+      </c>
+      <c r="I477" t="n">
+        <v>330.0628571428572</v>
+      </c>
+      <c r="J477" t="n">
+        <v>329.6</v>
+      </c>
+      <c r="K477" t="n">
+        <v>322.4468421052632</v>
+      </c>
+      <c r="L477" t="n">
+        <v>321.3261538461539</v>
+      </c>
+      <c r="M477" t="n">
+        <v>322.6866666666667</v>
+      </c>
+      <c r="N477" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -22309,7 +22405,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B531"/>
+  <dimension ref="A1:B533"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27627,6 +27723,26 @@
       </c>
       <c r="B531" t="n">
         <v>-0.51</v>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" t="inlineStr">
+        <is>
+          <t>2025-09-24 22:30:00+00:00</t>
+        </is>
+      </c>
+      <c r="B532" t="n">
+        <v>-0.47</v>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" t="inlineStr">
+        <is>
+          <t>2025-10-02 22:30:00+00:00</t>
+        </is>
+      </c>
+      <c r="B533" t="n">
+        <v>0.64</v>
       </c>
     </row>
   </sheetData>
@@ -28717,7 +28833,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N475"/>
+  <dimension ref="A1:N477"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -61001,6 +61117,150 @@
         </is>
       </c>
     </row>
+    <row r="476">
+      <c r="A476" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-24 22:27:12+00:00</t>
+        </is>
+      </c>
+      <c r="B476" t="inlineStr">
+        <is>
+          <t>-46.38428124910173,168.02900790597542</t>
+        </is>
+      </c>
+      <c r="C476" t="inlineStr">
+        <is>
+          <t>-46.38407914361579,168.02815850336975</t>
+        </is>
+      </c>
+      <c r="D476" t="inlineStr">
+        <is>
+          <t>-46.383911498331706,168.02729447084357</t>
+        </is>
+      </c>
+      <c r="E476" t="inlineStr">
+        <is>
+          <t>-46.38374347826911,168.02643059765913</t>
+        </is>
+      </c>
+      <c r="F476" t="inlineStr">
+        <is>
+          <t>-46.383595257537806,168.0255583180582</t>
+        </is>
+      </c>
+      <c r="G476" t="inlineStr">
+        <is>
+          <t>-46.3834266427769,168.02469469763363</t>
+        </is>
+      </c>
+      <c r="H476" t="inlineStr">
+        <is>
+          <t>-46.383253919262955,168.02383282207467</t>
+        </is>
+      </c>
+      <c r="I476" t="inlineStr">
+        <is>
+          <t>-46.383106527474254,168.02296019040597</t>
+        </is>
+      </c>
+      <c r="J476" t="inlineStr">
+        <is>
+          <t>-46.38296666717571,168.0220533904986</t>
+        </is>
+      </c>
+      <c r="K476" t="inlineStr">
+        <is>
+          <t>-46.38288709612155,168.02112985123006</t>
+        </is>
+      </c>
+      <c r="L476" t="inlineStr">
+        <is>
+          <t>-46.382852490677934,168.02022971970325</t>
+        </is>
+      </c>
+      <c r="M476" t="inlineStr">
+        <is>
+          <t>-46.38284342491266,168.0193316995433</t>
+        </is>
+      </c>
+      <c r="N476" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" s="1" t="inlineStr">
+        <is>
+          <t>2025-10-02 22:27:13+00:00</t>
+        </is>
+      </c>
+      <c r="B477" t="inlineStr">
+        <is>
+          <t>-46.384402436214295,168.02895645560878</t>
+        </is>
+      </c>
+      <c r="C477" t="inlineStr">
+        <is>
+          <t>-46.3841308954686,168.02813653149778</t>
+        </is>
+      </c>
+      <c r="D477" t="inlineStr">
+        <is>
+          <t>-46.384016394433246,168.02724993482593</t>
+        </is>
+      </c>
+      <c r="E477" t="inlineStr">
+        <is>
+          <t>-46.3838461229469,168.02638701649482</t>
+        </is>
+      </c>
+      <c r="F477" t="inlineStr">
+        <is>
+          <t>-46.38369321461171,168.02551672614507</t>
+        </is>
+      </c>
+      <c r="G477" t="inlineStr">
+        <is>
+          <t>-46.383539898596375,168.02464660881256</t>
+        </is>
+      </c>
+      <c r="H477" t="inlineStr">
+        <is>
+          <t>-46.38336239114951,168.0237867634414</t>
+        </is>
+      </c>
+      <c r="I477" t="inlineStr">
+        <is>
+          <t>-46.38323854771152,168.0229041314073</t>
+        </is>
+      </c>
+      <c r="J477" t="inlineStr">
+        <is>
+          <t>-46.38308593957601,168.02202201274383</t>
+        </is>
+      </c>
+      <c r="K477" t="inlineStr">
+        <is>
+          <t>-46.38300377668043,168.02111918692987</t>
+        </is>
+      </c>
+      <c r="L477" t="inlineStr">
+        <is>
+          <t>-46.382988198461085,168.02021946303083</t>
+        </is>
+      </c>
+      <c r="M477" t="inlineStr">
+        <is>
+          <t>-46.38299477015775,168.01932025929545</t>
+        </is>
+      </c>
+      <c r="N477" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0535/nzd0535.xlsx
+++ b/data/nzd0535/nzd0535.xlsx
@@ -27916,28 +27916,28 @@
         <v>0.1208</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1480548320471476</v>
+        <v>0.156301854512894</v>
       </c>
       <c r="J2" t="n">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="K2" t="n">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01289640832212424</v>
+        <v>0.01439446529808375</v>
       </c>
       <c r="M2" t="n">
-        <v>7.44097093509753</v>
+        <v>7.45200975778786</v>
       </c>
       <c r="N2" t="n">
-        <v>94.07551591068278</v>
+        <v>94.25781171346301</v>
       </c>
       <c r="O2" t="n">
-        <v>9.699253368722914</v>
+        <v>9.708646234849791</v>
       </c>
       <c r="P2" t="n">
-        <v>324.171099758178</v>
+        <v>324.0865814463938</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -27994,28 +27994,28 @@
         <v>0.114</v>
       </c>
       <c r="I3" t="n">
-        <v>0.3088659985678813</v>
+        <v>0.3158701099179296</v>
       </c>
       <c r="J3" t="n">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="K3" t="n">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="L3" t="n">
-        <v>0.06130667490419484</v>
+        <v>0.06426924501678188</v>
       </c>
       <c r="M3" t="n">
-        <v>6.757242902278111</v>
+        <v>6.762312849177202</v>
       </c>
       <c r="N3" t="n">
-        <v>81.37455942160746</v>
+        <v>81.32234795218729</v>
       </c>
       <c r="O3" t="n">
-        <v>9.020784856186708</v>
+        <v>9.017890438023034</v>
       </c>
       <c r="P3" t="n">
-        <v>311.0517034674642</v>
+        <v>310.9795463090646</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -28072,28 +28072,28 @@
         <v>0.08500000000000001</v>
       </c>
       <c r="I4" t="n">
-        <v>0.2360200291456923</v>
+        <v>0.2441677676810386</v>
       </c>
       <c r="J4" t="n">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="K4" t="n">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="L4" t="n">
-        <v>0.04065282211835786</v>
+        <v>0.04346211336915862</v>
       </c>
       <c r="M4" t="n">
-        <v>6.843920947480378</v>
+        <v>6.852480263343671</v>
       </c>
       <c r="N4" t="n">
-        <v>73.16081444443617</v>
+        <v>73.37879335584073</v>
       </c>
       <c r="O4" t="n">
-        <v>8.553409521613949</v>
+        <v>8.566142268013106</v>
       </c>
       <c r="P4" t="n">
-        <v>312.5685452359683</v>
+        <v>312.4844972331055</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -28150,28 +28150,28 @@
         <v>0.1024</v>
       </c>
       <c r="I5" t="n">
-        <v>0.2564819278962732</v>
+        <v>0.2627116760875297</v>
       </c>
       <c r="J5" t="n">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="K5" t="n">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="L5" t="n">
-        <v>0.04430700388353404</v>
+        <v>0.04659513128776649</v>
       </c>
       <c r="M5" t="n">
-        <v>6.699149531592072</v>
+        <v>6.698704678207635</v>
       </c>
       <c r="N5" t="n">
-        <v>79.66194044905522</v>
+        <v>79.68476591491644</v>
       </c>
       <c r="O5" t="n">
-        <v>8.9253537996572</v>
+        <v>8.926632394969362</v>
       </c>
       <c r="P5" t="n">
-        <v>311.7685546646315</v>
+        <v>311.7052300607386</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -28228,28 +28228,28 @@
         <v>0.0951</v>
       </c>
       <c r="I6" t="n">
-        <v>0.2155914494992997</v>
+        <v>0.2202809231378861</v>
       </c>
       <c r="J6" t="n">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="K6" t="n">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="L6" t="n">
-        <v>0.03623233350295063</v>
+        <v>0.03796634271566834</v>
       </c>
       <c r="M6" t="n">
-        <v>6.279639729004477</v>
+        <v>6.274775950695398</v>
       </c>
       <c r="N6" t="n">
-        <v>69.19092403931157</v>
+        <v>69.1518108598416</v>
       </c>
       <c r="O6" t="n">
-        <v>8.318108200745622</v>
+        <v>8.315756782148069</v>
       </c>
       <c r="P6" t="n">
-        <v>314.3368016101853</v>
+        <v>314.2889265444924</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -28306,28 +28306,28 @@
         <v>0.08890000000000001</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1594298110458061</v>
+        <v>0.1618377507550533</v>
       </c>
       <c r="J7" t="n">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="K7" t="n">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="L7" t="n">
-        <v>0.01859883028215814</v>
+        <v>0.01927633353134384</v>
       </c>
       <c r="M7" t="n">
-        <v>6.602339590059448</v>
+        <v>6.600583441594932</v>
       </c>
       <c r="N7" t="n">
-        <v>75.18897895480661</v>
+        <v>75.07821426614851</v>
       </c>
       <c r="O7" t="n">
-        <v>8.671157878553856</v>
+        <v>8.664768563911474</v>
       </c>
       <c r="P7" t="n">
-        <v>316.9953135925728</v>
+        <v>316.9708294341237</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -28384,28 +28384,28 @@
         <v>0.0887</v>
       </c>
       <c r="I8" t="n">
-        <v>0.01653575454773271</v>
+        <v>0.0182098360381316</v>
       </c>
       <c r="J8" t="n">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="K8" t="n">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0001883382153304858</v>
+        <v>0.00023004252982739</v>
       </c>
       <c r="M8" t="n">
-        <v>6.857852767406556</v>
+        <v>6.85499490323121</v>
       </c>
       <c r="N8" t="n">
-        <v>81.72316534273969</v>
+        <v>81.54619951502626</v>
       </c>
       <c r="O8" t="n">
-        <v>9.040086578276764</v>
+        <v>9.030293434602569</v>
       </c>
       <c r="P8" t="n">
-        <v>318.5461898532389</v>
+        <v>318.5291822050039</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -28462,28 +28462,28 @@
         <v>0.08260000000000001</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.07302811593054409</v>
+        <v>-0.07074494434665284</v>
       </c>
       <c r="J9" t="n">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="K9" t="n">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="L9" t="n">
-        <v>0.003300155839656926</v>
+        <v>0.003117347442320395</v>
       </c>
       <c r="M9" t="n">
-        <v>7.230152687300035</v>
+        <v>7.231109162220581</v>
       </c>
       <c r="N9" t="n">
-        <v>90.30540358288926</v>
+        <v>90.19375454546963</v>
       </c>
       <c r="O9" t="n">
-        <v>9.502915530661591</v>
+        <v>9.497039251549381</v>
       </c>
       <c r="P9" t="n">
-        <v>321.7029792787161</v>
+        <v>321.6798563729088</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -28540,28 +28540,28 @@
         <v>0.09180000000000001</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.04689586100186894</v>
+        <v>-0.04679665246403439</v>
       </c>
       <c r="J10" t="n">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="K10" t="n">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="L10" t="n">
-        <v>0.001292572251787472</v>
+        <v>0.001296842733658932</v>
       </c>
       <c r="M10" t="n">
-        <v>7.480724798802469</v>
+        <v>7.477447567219943</v>
       </c>
       <c r="N10" t="n">
-        <v>94.67499740193892</v>
+        <v>94.4551846868148</v>
       </c>
       <c r="O10" t="n">
-        <v>9.730107779564362</v>
+        <v>9.71880572327767</v>
       </c>
       <c r="P10" t="n">
-        <v>323.9748574531458</v>
+        <v>323.9738223029756</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -28618,28 +28618,28 @@
         <v>0.1199</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.1223158738554721</v>
+        <v>-0.1261665505918256</v>
       </c>
       <c r="J11" t="n">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="K11" t="n">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="L11" t="n">
-        <v>0.01079826591339406</v>
+        <v>0.01155138572632985</v>
       </c>
       <c r="M11" t="n">
-        <v>6.953153039982212</v>
+        <v>6.951842366954073</v>
       </c>
       <c r="N11" t="n">
-        <v>76.90700923095935</v>
+        <v>76.8350812917611</v>
       </c>
       <c r="O11" t="n">
-        <v>8.769664145847283</v>
+        <v>8.765562234777704</v>
       </c>
       <c r="P11" t="n">
-        <v>323.5030349768645</v>
+        <v>323.5418425034773</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -28696,28 +28696,28 @@
         <v>0.0746</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.213411904556973</v>
+        <v>-0.2105403327845305</v>
       </c>
       <c r="J12" t="n">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="K12" t="n">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="L12" t="n">
-        <v>0.02804311046415575</v>
+        <v>0.02748371352324486</v>
       </c>
       <c r="M12" t="n">
-        <v>6.981245303009187</v>
+        <v>6.983212079941471</v>
       </c>
       <c r="N12" t="n">
-        <v>88.2386232416484</v>
+        <v>88.14464445913227</v>
       </c>
       <c r="O12" t="n">
-        <v>9.393541570762777</v>
+        <v>9.388537929791426</v>
       </c>
       <c r="P12" t="n">
-        <v>316.1262405426779</v>
+        <v>316.0972093338357</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -28774,28 +28774,28 @@
         <v>0.0684</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.2434784693570236</v>
+        <v>-0.242385550296093</v>
       </c>
       <c r="J13" t="n">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="K13" t="n">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="L13" t="n">
-        <v>0.03607774611557479</v>
+        <v>0.03598756726990016</v>
       </c>
       <c r="M13" t="n">
-        <v>7.16913753642859</v>
+        <v>7.174608526838876</v>
       </c>
       <c r="N13" t="n">
-        <v>88.96262815763623</v>
+        <v>88.88526373038042</v>
       </c>
       <c r="O13" t="n">
-        <v>9.43200022040056</v>
+        <v>9.427898160798112</v>
       </c>
       <c r="P13" t="n">
-        <v>319.4536333248443</v>
+        <v>319.4426055828684</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">

--- a/data/nzd0535/nzd0535.xlsx
+++ b/data/nzd0535/nzd0535.xlsx
@@ -27907,13 +27907,13 @@
         <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1</v>
+        <v>0.145</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0882</v>
+        <v>0.1207</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1208</v>
+        <v>0.1816</v>
       </c>
       <c r="I2" t="n">
         <v>0.1563018545128941</v>
@@ -27985,13 +27985,13 @@
         <v>0.9090717662137133</v>
       </c>
       <c r="F3" t="n">
-        <v>0.095</v>
+        <v>0.105</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0834</v>
+        <v>0.0891</v>
       </c>
       <c r="H3" t="n">
-        <v>0.114</v>
+        <v>0.1269</v>
       </c>
       <c r="I3" t="n">
         <v>0.315884678005159</v>
@@ -28063,13 +28063,13 @@
         <v>0.8181435324243416</v>
       </c>
       <c r="F4" t="n">
-        <v>0.075</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="G4" t="n">
-        <v>0.06710000000000001</v>
+        <v>0.0764</v>
       </c>
       <c r="H4" t="n">
-        <v>0.08500000000000001</v>
+        <v>0.0954</v>
       </c>
       <c r="I4" t="n">
         <v>0.2441555401464363</v>
@@ -28141,13 +28141,13 @@
         <v>0.727215298638055</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08500000000000001</v>
+        <v>0.115</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0756</v>
+        <v>0.1024</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1024</v>
+        <v>0.1367</v>
       </c>
       <c r="I5" t="n">
         <v>0.2627416840363707</v>
@@ -28219,13 +28219,13 @@
         <v>0.6362870648519715</v>
       </c>
       <c r="F6" t="n">
-        <v>0.08</v>
+        <v>0.11</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0689</v>
+        <v>0.1041</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0951</v>
+        <v>0.121</v>
       </c>
       <c r="I6" t="n">
         <v>0.2202961805833968</v>
@@ -28297,13 +28297,13 @@
         <v>0.5453588310658881</v>
       </c>
       <c r="F7" t="n">
-        <v>0.075</v>
+        <v>0.105</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0683</v>
+        <v>0.09030000000000001</v>
       </c>
       <c r="H7" t="n">
-        <v>0.08890000000000001</v>
+        <v>0.1231</v>
       </c>
       <c r="I7" t="n">
         <v>0.161823822751494</v>
@@ -28375,13 +28375,13 @@
         <v>0.4544305972796015</v>
       </c>
       <c r="F8" t="n">
-        <v>0.08</v>
+        <v>0.095</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0712</v>
+        <v>0.0866</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0887</v>
+        <v>0.1058</v>
       </c>
       <c r="I8" t="n">
         <v>0.01816993368221052</v>
@@ -28453,13 +28453,13 @@
         <v>0.3635023634933148</v>
       </c>
       <c r="F9" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.075</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0598</v>
+        <v>0.061</v>
       </c>
       <c r="H9" t="n">
-        <v>0.08260000000000001</v>
+        <v>0.1023</v>
       </c>
       <c r="I9" t="n">
         <v>-0.07074799484860499</v>
@@ -28531,13 +28531,13 @@
         <v>0.2725741297039431</v>
       </c>
       <c r="F10" t="n">
-        <v>0.08</v>
+        <v>0.105</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0713</v>
+        <v>0.07770000000000001</v>
       </c>
       <c r="H10" t="n">
-        <v>0.09180000000000001</v>
+        <v>0.1528</v>
       </c>
       <c r="I10" t="n">
         <v>-0.04679946347132177</v>
@@ -28609,13 +28609,13 @@
         <v>0.1818564675783915</v>
       </c>
       <c r="F11" t="n">
-        <v>0.095</v>
+        <v>0.08</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0799</v>
+        <v>0.0619</v>
       </c>
       <c r="H11" t="n">
-        <v>0.1199</v>
+        <v>0.1109</v>
       </c>
       <c r="I11" t="n">
         <v>-0.1261492606105458</v>
@@ -28687,13 +28687,13 @@
         <v>0.0909282337891919</v>
       </c>
       <c r="F12" t="n">
-        <v>0.065</v>
+        <v>0.055</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0567</v>
+        <v>0.0475</v>
       </c>
       <c r="H12" t="n">
-        <v>0.0746</v>
+        <v>0.07149999999999999</v>
       </c>
       <c r="I12" t="n">
         <v>-0.210535747943849</v>
@@ -28765,13 +28765,13 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0557</v>
+        <v>0.0419</v>
       </c>
       <c r="H13" t="n">
-        <v>0.0684</v>
+        <v>0.0592</v>
       </c>
       <c r="I13" t="n">
         <v>-0.2423686452692462</v>
